--- a/capiq_data/in_process_data/IQ368470.xlsx
+++ b/capiq_data/in_process_data/IQ368470.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD5D78-3A9C-422F-9E1C-1293F9F5FE60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB65683-5D20-41F9-8F15-E5EE7E1E3BB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"06e3a4e2-c912-4c3a-a274-811dfcb92014"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3cfa6df3-dd7a-4515-89bb-55a7b1b97fa7"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +853,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>103.161</v>
+        <v>18.629000000000001</v>
       </c>
       <c r="D2">
-        <v>2325.3490000000002</v>
+        <v>733.47500000000002</v>
       </c>
       <c r="E2">
-        <v>1036.07</v>
+        <v>354.95299999999997</v>
       </c>
       <c r="F2">
-        <v>218.893</v>
+        <v>107.416</v>
       </c>
       <c r="G2">
-        <v>1481.768</v>
+        <v>460.23899999999998</v>
       </c>
       <c r="H2">
-        <v>1995.6990000000001</v>
+        <v>644.20699999999999</v>
       </c>
       <c r="I2">
-        <v>567.96100000000001</v>
+        <v>285.93200000000002</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +892,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>771.60699999999997</v>
+        <v>346.25099999999998</v>
       </c>
       <c r="O2">
-        <v>791.63099999999997</v>
+        <v>347.19099999999997</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>149.17400000000001</v>
+        <v>25.181999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>7628</v>
+        <v>3677</v>
       </c>
       <c r="T2">
-        <v>1204.068</v>
+        <v>297.01600000000002</v>
       </c>
       <c r="U2">
-        <v>398.60700000000003</v>
+        <v>79.912000000000006</v>
       </c>
       <c r="V2">
-        <v>207.643</v>
+        <v>34.024999999999999</v>
       </c>
       <c r="W2">
-        <v>-42.192999999999998</v>
+        <v>-3.38</v>
       </c>
       <c r="X2">
-        <v>-75.099999999999994</v>
+        <v>-6.2549999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>24.881</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>103.161</v>
+        <v>18.629000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>97.028000000000006</v>
+        <v>18.134</v>
       </c>
       <c r="D3">
-        <v>2365.4720000000002</v>
+        <v>732.48400000000004</v>
       </c>
       <c r="E3">
-        <v>1175.7750000000001</v>
+        <v>361.214</v>
       </c>
       <c r="F3">
-        <v>215.232</v>
+        <v>113.309</v>
       </c>
       <c r="G3">
-        <v>1582.0709999999999</v>
+        <v>456.64699999999999</v>
       </c>
       <c r="H3">
-        <v>2096.3339999999998</v>
+        <v>640.45899999999995</v>
       </c>
       <c r="I3">
-        <v>709.12400000000002</v>
+        <v>276.875</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +975,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>851.75900000000001</v>
+        <v>328.041</v>
       </c>
       <c r="O3">
-        <v>868.80799999999999</v>
+        <v>330.39400000000001</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>-39.271999999999998</v>
+        <v>-8.343</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1227.5260000000001</v>
+        <v>310.065</v>
       </c>
       <c r="U3">
-        <v>359.33499999999998</v>
+        <v>71.569000000000003</v>
       </c>
       <c r="V3">
-        <v>52.613</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="W3">
-        <v>-48.850999999999999</v>
+        <v>-4.22</v>
       </c>
       <c r="X3">
-        <v>-89.475999999999999</v>
+        <v>-5.2210000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>8.327</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>97.028000000000006</v>
+        <v>18.134</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>111.023</v>
+        <v>22.641999999999999</v>
       </c>
       <c r="D4">
-        <v>2707.6619999999998</v>
+        <v>796.69399999999996</v>
       </c>
       <c r="E4">
-        <v>1311.192</v>
+        <v>378.94799999999998</v>
       </c>
       <c r="F4">
-        <v>238.92099999999999</v>
+        <v>118.003</v>
       </c>
       <c r="G4">
-        <v>1676.0809999999999</v>
+        <v>472.91</v>
       </c>
       <c r="H4">
-        <v>2193.797</v>
+        <v>653.29899999999998</v>
       </c>
       <c r="I4">
-        <v>758.02300000000002</v>
+        <v>274.62799999999999</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +1058,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>889.88699999999994</v>
+        <v>326.464</v>
       </c>
       <c r="O4">
-        <v>905.37099999999998</v>
+        <v>327.33</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-43.438000000000002</v>
+        <v>1.6E-2</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1288.4259999999999</v>
+        <v>325.96899999999999</v>
       </c>
       <c r="U4">
-        <v>315.89699999999999</v>
+        <v>71.584999999999994</v>
       </c>
       <c r="V4">
-        <v>26.241</v>
+        <v>7.6310000000000002</v>
       </c>
       <c r="W4">
-        <v>-48.710999999999999</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="X4">
-        <v>-60.933999999999997</v>
+        <v>-6.7850000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.98399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>111.023</v>
+        <v>22.641999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>114.34699999999999</v>
+        <v>22.628</v>
       </c>
       <c r="D5">
-        <v>2694.9279999999999</v>
+        <v>784.51700000000005</v>
       </c>
       <c r="E5">
-        <v>1238.079</v>
+        <v>386.88</v>
       </c>
       <c r="F5">
-        <v>244.94900000000001</v>
+        <v>113.19199999999999</v>
       </c>
       <c r="G5">
-        <v>1656.748</v>
+        <v>491.36599999999999</v>
       </c>
       <c r="H5">
-        <v>2179.4380000000001</v>
+        <v>673.85400000000004</v>
       </c>
       <c r="I5">
-        <v>740.97699999999998</v>
+        <v>280.92500000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>896.70899999999995</v>
+        <v>329.32299999999998</v>
       </c>
       <c r="O5">
-        <v>911.21400000000006</v>
+        <v>331.733</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>66.84</v>
+        <v>14.967000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1268.2239999999999</v>
+        <v>342.12099999999998</v>
       </c>
       <c r="U5">
-        <v>382.73700000000002</v>
+        <v>86.552000000000007</v>
       </c>
       <c r="V5">
-        <v>214.70099999999999</v>
+        <v>28.181000000000001</v>
       </c>
       <c r="W5">
-        <v>-48.756</v>
+        <v>-4.2279999999999998</v>
       </c>
       <c r="X5">
-        <v>-142.24100000000001</v>
+        <v>-6.5789999999999997</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,36 +1180,36 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>114.34699999999999</v>
+        <v>22.628</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>109.214</v>
+        <v>20.588000000000001</v>
       </c>
       <c r="D6">
-        <v>2568.2840000000001</v>
+        <v>776.37699999999995</v>
       </c>
       <c r="E6">
-        <v>1189.6369999999999</v>
+        <v>370.37799999999999</v>
       </c>
       <c r="F6">
-        <v>237.32300000000001</v>
+        <v>112.068</v>
       </c>
       <c r="G6">
-        <v>1611.5429999999999</v>
+        <v>503.21499999999997</v>
       </c>
       <c r="H6">
-        <v>2138.0410000000002</v>
+        <v>683.49</v>
       </c>
       <c r="I6">
-        <v>642.67200000000003</v>
+        <v>267.70800000000003</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>876.63199999999995</v>
+        <v>323.52800000000002</v>
       </c>
       <c r="O6">
-        <v>889.56700000000001</v>
+        <v>327.67500000000001</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>-9.0679999999999996</v>
+        <v>29.189</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>8353</v>
+        <v>3770</v>
       </c>
       <c r="T6">
-        <v>1248.4739999999999</v>
+        <v>355.815</v>
       </c>
       <c r="U6">
-        <v>373.66899999999998</v>
+        <v>115.741</v>
       </c>
       <c r="V6">
-        <v>136.15700000000001</v>
+        <v>37.795000000000002</v>
       </c>
       <c r="W6">
-        <v>-48.378999999999998</v>
+        <v>-4.2220000000000004</v>
       </c>
       <c r="X6">
-        <v>-122.447</v>
+        <v>-6.8209999999999997</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,36 +1263,36 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>109.214</v>
+        <v>20.588000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>106.5</v>
+        <v>20.841999999999999</v>
       </c>
       <c r="D7">
-        <v>2552.114</v>
+        <v>740.03099999999995</v>
       </c>
       <c r="E7">
-        <v>1245.3789999999999</v>
+        <v>360.06299999999999</v>
       </c>
       <c r="F7">
-        <v>231.30799999999999</v>
+        <v>113.59699999999999</v>
       </c>
       <c r="G7">
-        <v>1601.1310000000001</v>
+        <v>493.35500000000002</v>
       </c>
       <c r="H7">
-        <v>2134.2849999999999</v>
+        <v>685.96199999999999</v>
       </c>
       <c r="I7">
-        <v>747.63800000000003</v>
+        <v>267.45499999999998</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,37 +1307,37 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>871.86699999999996</v>
+        <v>307.65800000000002</v>
       </c>
       <c r="O7">
-        <v>886.17200000000003</v>
+        <v>313.452</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-62.304000000000002</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1248.1130000000001</v>
+        <v>372.51</v>
       </c>
       <c r="U7">
-        <v>311.36500000000001</v>
+        <v>118.03700000000001</v>
       </c>
       <c r="V7">
-        <v>77.084000000000003</v>
+        <v>24.385000000000002</v>
       </c>
       <c r="W7">
-        <v>-54.725000000000001</v>
+        <v>-5.0640000000000001</v>
       </c>
       <c r="X7">
-        <v>-125.33</v>
+        <v>-4.7039999999999997</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,36 +1346,36 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>106.5</v>
+        <v>20.841999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>114.58199999999999</v>
+        <v>25.206</v>
       </c>
       <c r="D8">
-        <v>2955.7139999999999</v>
+        <v>842.72</v>
       </c>
       <c r="E8">
-        <v>1415.39</v>
+        <v>409.05599999999998</v>
       </c>
       <c r="F8">
-        <v>248.339</v>
+        <v>121.57</v>
       </c>
       <c r="G8">
-        <v>1707.6010000000001</v>
+        <v>551.11099999999999</v>
       </c>
       <c r="H8">
-        <v>2239.9989999999998</v>
+        <v>742.86199999999997</v>
       </c>
       <c r="I8">
-        <v>834.69200000000001</v>
+        <v>299.87799999999999</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>949.34100000000001</v>
+        <v>346.36500000000001</v>
       </c>
       <c r="O8">
-        <v>961.80899999999997</v>
+        <v>352.77499999999998</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>-70.738</v>
+        <v>6.6210000000000004</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1278.19</v>
+        <v>390.08699999999999</v>
       </c>
       <c r="U8">
-        <v>240.62700000000001</v>
+        <v>124.658</v>
       </c>
       <c r="V8">
-        <v>32.944000000000003</v>
+        <v>17.734000000000002</v>
       </c>
       <c r="W8">
-        <v>-54.426000000000002</v>
+        <v>-5.0679999999999996</v>
       </c>
       <c r="X8">
-        <v>-90.546999999999997</v>
+        <v>-6.6280000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,36 +1429,36 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>114.58199999999999</v>
+        <v>25.206</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>116.33</v>
+        <v>25.951000000000001</v>
       </c>
       <c r="D9">
-        <v>2880.4090000000001</v>
+        <v>872.245</v>
       </c>
       <c r="E9">
-        <v>1334.577</v>
+        <v>398.036</v>
       </c>
       <c r="F9">
-        <v>253.328</v>
+        <v>123.084</v>
       </c>
       <c r="G9">
-        <v>1726.1659999999999</v>
+        <v>562.46400000000006</v>
       </c>
       <c r="H9">
-        <v>2243.2669999999998</v>
+        <v>752.22799999999995</v>
       </c>
       <c r="I9">
-        <v>729.74400000000003</v>
+        <v>283.77999999999997</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1473,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>938.05499999999995</v>
+        <v>337.02199999999999</v>
       </c>
       <c r="O9">
-        <v>952.39200000000005</v>
+        <v>343.495</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32.328000000000003</v>
+        <v>-3.0339999999999998</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1290.875</v>
+        <v>408.733</v>
       </c>
       <c r="U9">
-        <v>272.95499999999998</v>
+        <v>121.624</v>
       </c>
       <c r="V9">
-        <v>157.12799999999999</v>
+        <v>31.57</v>
       </c>
       <c r="W9">
-        <v>-54.122</v>
+        <v>-5.069</v>
       </c>
       <c r="X9">
-        <v>-112.59</v>
+        <v>-7.42</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-25.097999999999999</v>
       </c>
       <c r="AA9">
-        <v>116.33</v>
+        <v>25.951000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>256.392</v>
+        <v>24.326000000000001</v>
       </c>
       <c r="D10">
-        <v>2970.8760000000002</v>
+        <v>839.47699999999998</v>
       </c>
       <c r="E10">
-        <v>1412.136</v>
+        <v>391.67</v>
       </c>
       <c r="F10">
-        <v>253.19</v>
+        <v>125.527</v>
       </c>
       <c r="G10">
-        <v>1672.29</v>
+        <v>588.572</v>
       </c>
       <c r="H10">
-        <v>2804.2249999999999</v>
+        <v>777.15099999999995</v>
       </c>
       <c r="I10">
-        <v>639.46</v>
+        <v>222.39500000000001</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1232.2170000000001</v>
+        <v>343.47399999999999</v>
       </c>
       <c r="O10">
-        <v>1299.8530000000001</v>
+        <v>351.32100000000003</v>
       </c>
       <c r="P10">
-        <v>253.64599999999999</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>-62.936</v>
+        <v>11.375</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>10929</v>
+        <v>3814</v>
       </c>
       <c r="T10">
-        <v>1504.3720000000001</v>
+        <v>425.83</v>
       </c>
       <c r="U10">
-        <v>210.01900000000001</v>
+        <v>132.999</v>
       </c>
       <c r="V10">
-        <v>193.18600000000001</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="W10">
-        <v>-112.08</v>
+        <v>-5.0650000000000004</v>
       </c>
       <c r="X10">
-        <v>64.129000000000005</v>
+        <v>-7.0270000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-20.111000000000001</v>
       </c>
       <c r="AA10">
-        <v>256.392</v>
+        <v>24.326000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>103.343</v>
+        <v>25.14</v>
       </c>
       <c r="D11">
-        <v>2994.2669999999998</v>
+        <v>816.74400000000003</v>
       </c>
       <c r="E11">
-        <v>1469.826</v>
+        <v>416.43599999999998</v>
       </c>
       <c r="F11">
-        <v>243.077</v>
+        <v>133.09100000000001</v>
       </c>
       <c r="G11">
-        <v>1690.579</v>
+        <v>618.577</v>
       </c>
       <c r="H11">
-        <v>2830.56</v>
+        <v>806.47400000000005</v>
       </c>
       <c r="I11">
-        <v>701.77</v>
+        <v>289.63900000000001</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>390.62900000000002</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-871.01700000000005</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1249.4269999999999</v>
+        <v>350.11700000000002</v>
       </c>
       <c r="O11">
-        <v>1340.875</v>
+        <v>359.28</v>
       </c>
       <c r="P11">
-        <v>390.62900000000002</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>-50.119</v>
+        <v>4.1669999999999998</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1489.6849999999999</v>
+        <v>447.19400000000002</v>
       </c>
       <c r="U11">
-        <v>159.9</v>
+        <v>137.166</v>
       </c>
       <c r="V11">
-        <v>-58.05</v>
+        <v>11.808</v>
       </c>
       <c r="W11">
-        <v>-56.472999999999999</v>
+        <v>-6.7539999999999996</v>
       </c>
       <c r="X11">
-        <v>18.626999999999999</v>
+        <v>-6.032</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-0.153</v>
       </c>
       <c r="AA11">
-        <v>103.343</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>111.872</v>
+        <v>27.221</v>
       </c>
       <c r="D12">
-        <v>3288.2620000000002</v>
+        <v>935.20600000000002</v>
       </c>
       <c r="E12">
-        <v>1570.886</v>
+        <v>415.74200000000002</v>
       </c>
       <c r="F12">
-        <v>266.59300000000002</v>
+        <v>136.02500000000001</v>
       </c>
       <c r="G12">
-        <v>1782.9680000000001</v>
+        <v>650.05100000000004</v>
       </c>
       <c r="H12">
-        <v>2921.5450000000001</v>
+        <v>838.08299999999997</v>
       </c>
       <c r="I12">
-        <v>747.02200000000005</v>
+        <v>296.45100000000002</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>365.65199999999999</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1330.9870000000001</v>
+        <v>358.71800000000002</v>
       </c>
       <c r="O12">
-        <v>1422.48</v>
+        <v>370.60599999999999</v>
       </c>
       <c r="P12">
-        <v>365.65199999999999</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-9.8829999999999991</v>
+        <v>31.056999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1499.0650000000001</v>
+        <v>467.47699999999998</v>
       </c>
       <c r="U12">
-        <v>150.017</v>
+        <v>168.22300000000001</v>
       </c>
       <c r="V12">
-        <v>116.321</v>
+        <v>42.726999999999997</v>
       </c>
       <c r="W12">
-        <v>-56.558</v>
+        <v>-6.758</v>
       </c>
       <c r="X12">
-        <v>-129.86699999999999</v>
+        <v>-9.5690000000000008</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="AA12">
-        <v>111.872</v>
+        <v>27.221</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>107.73699999999999</v>
+        <v>27.212</v>
       </c>
       <c r="D13">
-        <v>3316.665</v>
+        <v>919.33799999999997</v>
       </c>
       <c r="E13">
-        <v>1564.9970000000001</v>
+        <v>438.45299999999997</v>
       </c>
       <c r="F13">
-        <v>258.91800000000001</v>
+        <v>135.821</v>
       </c>
       <c r="G13">
-        <v>1753.441</v>
+        <v>679.68899999999996</v>
       </c>
       <c r="H13">
-        <v>2891.5680000000002</v>
+        <v>867.10500000000002</v>
       </c>
       <c r="I13">
-        <v>757.55799999999999</v>
+        <v>299.58499999999998</v>
       </c>
       <c r="J13">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1306.231</v>
+        <v>365.93799999999999</v>
       </c>
       <c r="O13">
-        <v>1903.0050000000001</v>
+        <v>378.20299999999997</v>
       </c>
       <c r="P13">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-20.294</v>
+        <v>10.678000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>988.56299999999999</v>
+        <v>488.90199999999999</v>
       </c>
       <c r="U13">
-        <v>129.72300000000001</v>
+        <v>178.90100000000001</v>
       </c>
       <c r="V13">
-        <v>124.658</v>
+        <v>20.599</v>
       </c>
       <c r="W13">
-        <v>-54.098999999999997</v>
+        <v>-6.7649999999999997</v>
       </c>
       <c r="X13">
-        <v>-134.91399999999999</v>
+        <v>-7.9180000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-0.112</v>
       </c>
       <c r="AA13">
-        <v>107.73699999999999</v>
+        <v>27.212</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>92.951999999999998</v>
+        <v>27.795999999999999</v>
       </c>
       <c r="D14">
-        <v>3152.8820000000001</v>
+        <v>942.35699999999997</v>
       </c>
       <c r="E14">
-        <v>1449.5809999999999</v>
+        <v>457.45499999999998</v>
       </c>
       <c r="F14">
-        <v>240.846</v>
+        <v>139.911</v>
       </c>
       <c r="G14">
-        <v>1664.4849999999999</v>
+        <v>717.32899999999995</v>
       </c>
       <c r="H14">
-        <v>2802.8180000000002</v>
+        <v>908.149</v>
       </c>
       <c r="I14">
-        <v>685.89</v>
+        <v>261.20600000000002</v>
       </c>
       <c r="J14">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1269.981</v>
+        <v>381.20100000000002</v>
       </c>
       <c r="O14">
-        <v>1863.0940000000001</v>
+        <v>389.40199999999999</v>
       </c>
       <c r="P14">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>32.323999999999998</v>
+        <v>-5.4880000000000004</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>11676</v>
+        <v>4112</v>
       </c>
       <c r="T14">
-        <v>939.72400000000005</v>
+        <v>518.74699999999996</v>
       </c>
       <c r="U14">
-        <v>162.047</v>
+        <v>123.413</v>
       </c>
       <c r="V14">
-        <v>164.84800000000001</v>
+        <v>34.363999999999997</v>
       </c>
       <c r="W14">
-        <v>-53.127000000000002</v>
+        <v>-6.7690000000000001</v>
       </c>
       <c r="X14">
-        <v>-118.75</v>
+        <v>-9.48</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-25.218</v>
       </c>
       <c r="AA14">
-        <v>92.951999999999998</v>
+        <v>27.795999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>93.186999999999998</v>
+        <v>29.071999999999999</v>
       </c>
       <c r="D15">
-        <v>3142.585</v>
+        <v>946.61</v>
       </c>
       <c r="E15">
-        <v>1612.0340000000001</v>
+        <v>470.923</v>
       </c>
       <c r="F15">
-        <v>236.93799999999999</v>
+        <v>149.584</v>
       </c>
       <c r="G15">
-        <v>1823.0820000000001</v>
+        <v>719.27300000000002</v>
       </c>
       <c r="H15">
-        <v>2960.1680000000001</v>
+        <v>927.23500000000001</v>
       </c>
       <c r="I15">
-        <v>782.91300000000001</v>
+        <v>317.55700000000002</v>
       </c>
       <c r="J15">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-1190</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1380.489</v>
+        <v>375.94600000000003</v>
       </c>
       <c r="O15">
-        <v>1978.5709999999999</v>
+        <v>385.45</v>
       </c>
       <c r="P15">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-19.234000000000002</v>
+        <v>-14.885</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>981.59699999999998</v>
+        <v>541.78499999999997</v>
       </c>
       <c r="U15">
-        <v>142.81299999999999</v>
+        <v>183.62799999999999</v>
       </c>
       <c r="V15">
-        <v>14.44</v>
+        <v>14.474</v>
       </c>
       <c r="W15">
-        <v>-52.42</v>
+        <v>-10.247</v>
       </c>
       <c r="X15">
-        <v>-21.431000000000001</v>
+        <v>-9.6129999999999995</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="AA15">
-        <v>93.186999999999998</v>
+        <v>29.071999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>118.596</v>
+        <v>32.277999999999999</v>
       </c>
       <c r="D16">
-        <v>3502.9180000000001</v>
+        <v>1077.1010000000001</v>
       </c>
       <c r="E16">
-        <v>1699.787</v>
+        <v>519.85199999999998</v>
       </c>
       <c r="F16">
-        <v>282.05099999999999</v>
+        <v>158.05500000000001</v>
       </c>
       <c r="G16">
-        <v>1909.201</v>
+        <v>760.42700000000002</v>
       </c>
       <c r="H16">
-        <v>3037.1060000000002</v>
+        <v>972.34</v>
       </c>
       <c r="I16">
-        <v>815.24900000000002</v>
+        <v>335.35199999999998</v>
       </c>
       <c r="J16">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1430.998</v>
+        <v>399.23500000000001</v>
       </c>
       <c r="O16">
-        <v>2027.0050000000001</v>
+        <v>408.47800000000001</v>
       </c>
       <c r="P16">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.4019999999999999</v>
+        <v>-6.6589999999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>11645</v>
+        <v>4410</v>
       </c>
       <c r="T16">
-        <v>1010.101</v>
+        <v>563.86199999999997</v>
       </c>
       <c r="U16">
-        <v>144.215</v>
+        <v>177.06899999999999</v>
       </c>
       <c r="V16">
-        <v>113.928</v>
+        <v>16.21</v>
       </c>
       <c r="W16">
-        <v>-52.488999999999997</v>
+        <v>-10.252000000000001</v>
       </c>
       <c r="X16">
-        <v>-106.02</v>
+        <v>-14.852</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="AA16">
-        <v>118.596</v>
+        <v>32.277999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>124.98099999999999</v>
+        <v>37.348999999999997</v>
       </c>
       <c r="D17">
-        <v>3467.3620000000001</v>
+        <v>1123.806</v>
       </c>
       <c r="E17">
-        <v>1640.634</v>
+        <v>548.45899999999995</v>
       </c>
       <c r="F17">
-        <v>282.94299999999998</v>
+        <v>172.173</v>
       </c>
       <c r="G17">
-        <v>1824.7159999999999</v>
+        <v>796.34</v>
       </c>
       <c r="H17">
-        <v>2941.7840000000001</v>
+        <v>1012.079</v>
       </c>
       <c r="I17">
-        <v>767.16399999999999</v>
+        <v>336.51100000000002</v>
       </c>
       <c r="J17">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1329.202</v>
+        <v>412.62799999999999</v>
       </c>
       <c r="O17">
-        <v>1923.067</v>
+        <v>421.39600000000002</v>
       </c>
       <c r="P17">
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-16.498999999999999</v>
+        <v>10.555999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>4671</v>
       </c>
       <c r="T17">
-        <v>1018.717</v>
+        <v>590.68299999999999</v>
       </c>
       <c r="U17">
-        <v>127.71599999999999</v>
+        <v>187.625</v>
       </c>
       <c r="V17">
-        <v>176.95400000000001</v>
+        <v>32.298000000000002</v>
       </c>
       <c r="W17">
-        <v>-52.680999999999997</v>
+        <v>-10.148999999999999</v>
       </c>
       <c r="X17">
-        <v>-181.04300000000001</v>
+        <v>-16.876999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-0.14299999999999999</v>
       </c>
       <c r="AA17">
-        <v>124.98099999999999</v>
+        <v>37.348999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>112.947</v>
+        <v>38.555</v>
       </c>
       <c r="D18">
-        <v>3357.2020000000002</v>
+        <v>1194.021</v>
       </c>
       <c r="E18">
-        <v>1571.5909999999999</v>
+        <v>544.274</v>
       </c>
       <c r="F18">
-        <v>266.69900000000001</v>
+        <v>181.179</v>
       </c>
       <c r="G18">
-        <v>2105.4589999999998</v>
+        <v>845.98699999999997</v>
       </c>
       <c r="H18">
-        <v>3214.3380000000002</v>
+        <v>1080.6959999999999</v>
       </c>
       <c r="I18">
-        <v>716.654</v>
+        <v>303.08199999999999</v>
       </c>
       <c r="J18">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1575.86</v>
+        <v>452.81900000000002</v>
       </c>
       <c r="O18">
-        <v>2167.3229999999999</v>
+        <v>459.84</v>
       </c>
       <c r="P18">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.224</v>
+        <v>54.051000000000002</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>11521</v>
+        <v>4806</v>
       </c>
       <c r="T18">
-        <v>1047.0150000000001</v>
+        <v>620.85599999999999</v>
       </c>
       <c r="U18">
-        <v>128.94</v>
+        <v>166.476</v>
       </c>
       <c r="V18">
-        <v>208.10400000000001</v>
+        <v>92.959000000000003</v>
       </c>
       <c r="W18">
-        <v>-57.417999999999999</v>
+        <v>-10.254</v>
       </c>
       <c r="X18">
-        <v>164.857</v>
+        <v>-18.68</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="AA18">
-        <v>112.947</v>
+        <v>38.555</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>106.476</v>
+        <v>41.776000000000003</v>
       </c>
       <c r="D19">
-        <v>3300.89</v>
+        <v>1214.94</v>
       </c>
       <c r="E19">
-        <v>1651.4269999999999</v>
+        <v>599.78399999999999</v>
       </c>
       <c r="F19">
-        <v>269.96600000000001</v>
+        <v>199.38200000000001</v>
       </c>
       <c r="G19">
-        <v>1846.915</v>
+        <v>865.09100000000001</v>
       </c>
       <c r="H19">
-        <v>3309.2240000000002</v>
+        <v>1156.704</v>
       </c>
       <c r="I19">
-        <v>791.72199999999998</v>
+        <v>399.39100000000002</v>
       </c>
       <c r="J19">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1651.096</v>
+        <v>478.8</v>
       </c>
       <c r="O19">
-        <v>2251.2040000000002</v>
+        <v>488.137</v>
       </c>
       <c r="P19">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>6.843</v>
+        <v>-41.24</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>5029</v>
       </c>
       <c r="T19">
-        <v>1058.02</v>
+        <v>668.56700000000001</v>
       </c>
       <c r="U19">
-        <v>135.78299999999999</v>
+        <v>125.236</v>
       </c>
       <c r="V19">
-        <v>100.395</v>
+        <v>23.614000000000001</v>
       </c>
       <c r="W19">
-        <v>-57.335000000000001</v>
+        <v>-12.832000000000001</v>
       </c>
       <c r="X19">
-        <v>-67.832999999999998</v>
+        <v>-10.237</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-0.56699999999999995</v>
       </c>
       <c r="AA19">
-        <v>106.476</v>
+        <v>41.776000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>137.208</v>
+        <v>49.347000000000001</v>
       </c>
       <c r="D20">
-        <v>3545.0880000000002</v>
+        <v>1405.1420000000001</v>
       </c>
       <c r="E20">
-        <v>1706.4290000000001</v>
+        <v>667.49900000000002</v>
       </c>
       <c r="F20">
-        <v>320.01900000000001</v>
+        <v>215.41200000000001</v>
       </c>
       <c r="G20">
-        <v>1944.3389999999999</v>
+        <v>968.26</v>
       </c>
       <c r="H20">
-        <v>3404.0140000000001</v>
+        <v>1259.4369999999999</v>
       </c>
       <c r="I20">
-        <v>832.86099999999999</v>
+        <v>458.09800000000001</v>
       </c>
       <c r="J20">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1694.818</v>
+        <v>544.82899999999995</v>
       </c>
       <c r="O20">
-        <v>2292.163</v>
+        <v>552.12900000000002</v>
       </c>
       <c r="P20">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>35.667999999999999</v>
+        <v>31.710999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>5368</v>
       </c>
       <c r="T20">
-        <v>1111.8510000000001</v>
+        <v>707.30799999999999</v>
       </c>
       <c r="U20">
-        <v>171.45099999999999</v>
+        <v>156.947</v>
       </c>
       <c r="V20">
-        <v>150.80099999999999</v>
+        <v>53.960999999999999</v>
       </c>
       <c r="W20">
-        <v>-57.182000000000002</v>
+        <v>-12.871</v>
       </c>
       <c r="X20">
-        <v>-105.899</v>
+        <v>-17.753</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-0.22900000000000001</v>
       </c>
       <c r="AA20">
-        <v>137.208</v>
+        <v>49.347000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>139.43199999999999</v>
+        <v>54.088999999999999</v>
       </c>
       <c r="D21">
-        <v>3419.2530000000002</v>
+        <v>1485.3689999999999</v>
       </c>
       <c r="E21">
-        <v>1651.7940000000001</v>
+        <v>698.25400000000002</v>
       </c>
       <c r="F21">
-        <v>324.49799999999999</v>
+        <v>228.874</v>
       </c>
       <c r="G21">
-        <v>1856.211</v>
+        <v>1029.0429999999999</v>
       </c>
       <c r="H21">
-        <v>3312.5650000000001</v>
+        <v>1336.9490000000001</v>
       </c>
       <c r="I21">
-        <v>799.30700000000002</v>
+        <v>469.13200000000001</v>
       </c>
       <c r="J21">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1581.259</v>
+        <v>579.35400000000004</v>
       </c>
       <c r="O21">
-        <v>2181.2020000000002</v>
+        <v>587.255</v>
       </c>
       <c r="P21">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-28.364000000000001</v>
+        <v>34.994999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>5605</v>
       </c>
       <c r="T21">
-        <v>1131.3630000000001</v>
+        <v>749.69399999999996</v>
       </c>
       <c r="U21">
-        <v>143.08699999999999</v>
+        <v>191.94200000000001</v>
       </c>
       <c r="V21">
-        <v>213.24700000000001</v>
+        <v>76.322000000000003</v>
       </c>
       <c r="W21">
-        <v>-56.930999999999997</v>
+        <v>-12.875</v>
       </c>
       <c r="X21">
-        <v>-224.477</v>
+        <v>-20.574000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-0.77</v>
       </c>
       <c r="AA21">
-        <v>139.43199999999999</v>
+        <v>54.088999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>126.583</v>
+        <v>58.146000000000001</v>
       </c>
       <c r="D22">
-        <v>3210.8530000000001</v>
+        <v>1583.4970000000001</v>
       </c>
       <c r="E22">
-        <v>1505.62</v>
+        <v>716.72500000000002</v>
       </c>
       <c r="F22">
-        <v>302.58699999999999</v>
+        <v>236.08199999999999</v>
       </c>
       <c r="G22">
-        <v>1730.6980000000001</v>
+        <v>1084.7809999999999</v>
       </c>
       <c r="H22">
-        <v>3184.3580000000002</v>
+        <v>1395.068</v>
       </c>
       <c r="I22">
-        <v>697.58500000000004</v>
+        <v>410.74400000000003</v>
       </c>
       <c r="J22">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1448.597</v>
+        <v>612.48299999999995</v>
       </c>
       <c r="O22">
-        <v>2033.9079999999999</v>
+        <v>615.03099999999995</v>
       </c>
       <c r="P22">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>25.141999999999999</v>
+        <v>38.686</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>13159</v>
+        <v>5776</v>
       </c>
       <c r="T22">
-        <v>1150.45</v>
+        <v>780.03700000000003</v>
       </c>
       <c r="U22">
-        <v>168.22900000000001</v>
+        <v>230.62799999999999</v>
       </c>
       <c r="V22">
-        <v>253.893</v>
+        <v>70.207999999999998</v>
       </c>
       <c r="W22">
-        <v>-64.167000000000002</v>
+        <v>-12.88</v>
       </c>
       <c r="X22">
-        <v>-209.53200000000001</v>
+        <v>-21.204000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="AA22">
-        <v>126.583</v>
+        <v>58.146000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>118.96299999999999</v>
+        <v>58.113999999999997</v>
       </c>
       <c r="D23">
-        <v>3073.9430000000002</v>
+        <v>1499.115</v>
       </c>
       <c r="E23">
-        <v>1463.24</v>
+        <v>706.96799999999996</v>
       </c>
       <c r="F23">
-        <v>285.83800000000002</v>
+        <v>255.05699999999999</v>
       </c>
       <c r="G23">
-        <v>1705.7159999999999</v>
+        <v>1108.777</v>
       </c>
       <c r="H23">
-        <v>3162.2449999999999</v>
+        <v>1426.4390000000001</v>
       </c>
       <c r="I23">
-        <v>690.69200000000001</v>
+        <v>487.67399999999998</v>
       </c>
       <c r="J23">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-1460</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1372.0550000000001</v>
+        <v>584.29200000000003</v>
       </c>
       <c r="O23">
-        <v>1970.4390000000001</v>
+        <v>585.53</v>
       </c>
       <c r="P23">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.177</v>
+        <v>25.798999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1191.806</v>
+        <v>840.90899999999999</v>
       </c>
       <c r="U23">
-        <v>179.40600000000001</v>
+        <v>256.42700000000002</v>
       </c>
       <c r="V23">
-        <v>104.15</v>
+        <v>56.094000000000001</v>
       </c>
       <c r="W23">
-        <v>-63.887999999999998</v>
+        <v>-22.588999999999999</v>
       </c>
       <c r="X23">
-        <v>-76.59</v>
+        <v>-16.123999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-1.6739999999999999</v>
       </c>
       <c r="AA23">
-        <v>118.96299999999999</v>
+        <v>58.113999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>143.09</v>
+        <v>66.593999999999994</v>
       </c>
       <c r="D24">
-        <v>3299.741</v>
+        <v>1700.9970000000001</v>
       </c>
       <c r="E24">
-        <v>1602.6310000000001</v>
+        <v>788.46699999999998</v>
       </c>
       <c r="F24">
-        <v>323.964</v>
+        <v>270.61900000000003</v>
       </c>
       <c r="G24">
-        <v>1879.1020000000001</v>
+        <v>1173.6780000000001</v>
       </c>
       <c r="H24">
-        <v>3349.07</v>
+        <v>1527.45</v>
       </c>
       <c r="I24">
-        <v>757.79200000000003</v>
+        <v>539.18799999999999</v>
       </c>
       <c r="J24">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1491.4570000000001</v>
+        <v>648.30100000000004</v>
       </c>
       <c r="O24">
-        <v>2086.23</v>
+        <v>649.54399999999998</v>
       </c>
       <c r="P24">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>27.677</v>
+        <v>-17.021000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1262.8399999999999</v>
+        <v>877.90599999999995</v>
       </c>
       <c r="U24">
-        <v>207.083</v>
+        <v>239.40600000000001</v>
       </c>
       <c r="V24">
-        <v>143.11099999999999</v>
+        <v>59.588999999999999</v>
       </c>
       <c r="W24">
-        <v>-63.631999999999998</v>
+        <v>-22.780999999999999</v>
       </c>
       <c r="X24">
-        <v>-87.075000000000003</v>
+        <v>-41.439</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AA24">
-        <v>143.09</v>
+        <v>66.593999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>129.02799999999999</v>
+        <v>70.39</v>
       </c>
       <c r="D25">
-        <v>3355.7539999999999</v>
+        <v>1713.491</v>
       </c>
       <c r="E25">
-        <v>1682.6859999999999</v>
+        <v>786.40499999999997</v>
       </c>
       <c r="F25">
-        <v>301.57900000000001</v>
+        <v>278.346</v>
       </c>
       <c r="G25">
-        <v>1967.549</v>
+        <v>1219.375</v>
       </c>
       <c r="H25">
-        <v>3664.0619999999999</v>
+        <v>1587.701</v>
       </c>
       <c r="I25">
-        <v>820.29899999999998</v>
+        <v>542.59400000000005</v>
       </c>
       <c r="J25">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1799.797</v>
+        <v>669.49699999999996</v>
       </c>
       <c r="O25">
-        <v>2394.3939999999998</v>
+        <v>670.72799999999995</v>
       </c>
       <c r="P25">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17.366</v>
+        <v>45.981999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>6605</v>
       </c>
       <c r="T25">
-        <v>1269.6679999999999</v>
+        <v>916.97299999999996</v>
       </c>
       <c r="U25">
-        <v>224.44900000000001</v>
+        <v>285.38799999999998</v>
       </c>
       <c r="V25">
-        <v>129.56700000000001</v>
+        <v>115.22799999999999</v>
       </c>
       <c r="W25">
-        <v>-63.609000000000002</v>
+        <v>-22.675999999999998</v>
       </c>
       <c r="X25">
-        <v>135.441</v>
+        <v>-42.726999999999997</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-5.149</v>
       </c>
       <c r="AA25">
-        <v>129.02799999999999</v>
+        <v>70.39</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>122.303</v>
+        <v>71.826999999999998</v>
       </c>
       <c r="D26">
-        <v>3414.9749999999999</v>
+        <v>1642.5909999999999</v>
       </c>
       <c r="E26">
-        <v>1711.191</v>
+        <v>764.995</v>
       </c>
       <c r="F26">
-        <v>301.21100000000001</v>
+        <v>278.52199999999999</v>
       </c>
       <c r="G26">
-        <v>2008.1020000000001</v>
+        <v>1256.1479999999999</v>
       </c>
       <c r="H26">
-        <v>3687.7579999999998</v>
+        <v>1631.693</v>
       </c>
       <c r="I26">
-        <v>839.73599999999999</v>
+        <v>468.49900000000002</v>
       </c>
       <c r="J26">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1845.7180000000001</v>
+        <v>686.94899999999996</v>
       </c>
       <c r="O26">
-        <v>2429.9110000000001</v>
+        <v>687.971</v>
       </c>
       <c r="P26">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>23.216999999999999</v>
+        <v>63.204000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>14125</v>
+        <v>6768</v>
       </c>
       <c r="T26">
-        <v>1257.847</v>
+        <v>943.72199999999998</v>
       </c>
       <c r="U26">
-        <v>247.666</v>
+        <v>348.59199999999998</v>
       </c>
       <c r="V26">
-        <v>152.58000000000001</v>
+        <v>112.46599999999999</v>
       </c>
       <c r="W26">
-        <v>-54.301000000000002</v>
+        <v>-22.791</v>
       </c>
       <c r="X26">
-        <v>-99.075999999999993</v>
+        <v>-45.555</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>4.7270000000000003</v>
       </c>
       <c r="AA26">
-        <v>122.303</v>
+        <v>71.826999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>122.08</v>
+        <v>72.965000000000003</v>
       </c>
       <c r="D27">
-        <v>3415.125</v>
+        <v>1619.325</v>
       </c>
       <c r="E27">
-        <v>1802.777</v>
+        <v>801.23900000000003</v>
       </c>
       <c r="F27">
-        <v>278.06200000000001</v>
+        <v>296.93</v>
       </c>
       <c r="G27">
-        <v>2092.61</v>
+        <v>1291.5830000000001</v>
       </c>
       <c r="H27">
-        <v>3775.7440000000001</v>
+        <v>1684.201</v>
       </c>
       <c r="I27">
-        <v>893.23699999999997</v>
+        <v>583.89200000000005</v>
       </c>
       <c r="J27">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>-2450</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1877.367</v>
+        <v>688.38</v>
       </c>
       <c r="O27">
-        <v>2459.87</v>
+        <v>697.49800000000005</v>
       </c>
       <c r="P27">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>-17.872</v>
+        <v>-12.602</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>14432</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1315.874</v>
+        <v>986.70299999999997</v>
       </c>
       <c r="U27">
-        <v>229.79400000000001</v>
+        <v>335.99</v>
       </c>
       <c r="V27">
-        <v>92.695999999999998</v>
+        <v>55.179000000000002</v>
       </c>
       <c r="W27">
-        <v>-64.596999999999994</v>
+        <v>-31.347999999999999</v>
       </c>
       <c r="X27">
-        <v>-96.727999999999994</v>
+        <v>-48.363999999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1.389</v>
       </c>
       <c r="AA27">
-        <v>122.08</v>
+        <v>72.965000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>111.071</v>
+        <v>82.299000000000007</v>
       </c>
       <c r="D28">
-        <v>3710.018</v>
+        <v>1879.7260000000001</v>
       </c>
       <c r="E28">
-        <v>1948.204</v>
+        <v>880.59500000000003</v>
       </c>
       <c r="F28">
-        <v>289.56900000000002</v>
+        <v>310.89800000000002</v>
       </c>
       <c r="G28">
-        <v>2285.0219999999999</v>
+        <v>1326.3710000000001</v>
       </c>
       <c r="H28">
-        <v>3965.8890000000001</v>
+        <v>1728.942</v>
       </c>
       <c r="I28">
-        <v>978.43100000000004</v>
+        <v>614.78099999999995</v>
       </c>
       <c r="J28">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1797.4939999999999</v>
+        <v>710.51700000000005</v>
       </c>
       <c r="O28">
-        <v>2628.681</v>
+        <v>720.19100000000003</v>
       </c>
       <c r="P28">
-        <v>1342</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>43.387999999999998</v>
+        <v>-47.298000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>14807</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>1337.2080000000001</v>
+        <v>1008.751</v>
       </c>
       <c r="U28">
-        <v>273.18200000000002</v>
+        <v>288.69200000000001</v>
       </c>
       <c r="V28">
-        <v>57.314999999999998</v>
+        <v>40.473999999999997</v>
       </c>
       <c r="W28">
-        <v>-64.209000000000003</v>
+        <v>-31.376000000000001</v>
       </c>
       <c r="X28">
-        <v>-0.38400000000000001</v>
+        <v>-69.688999999999993</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-5.2050000000000001</v>
       </c>
       <c r="AA28">
-        <v>111.071</v>
+        <v>82.299000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>119.18600000000001</v>
+        <v>83.742999999999995</v>
       </c>
       <c r="D29">
-        <v>3784.451</v>
+        <v>1865.15</v>
       </c>
       <c r="E29">
-        <v>2104.3139999999999</v>
+        <v>937.98400000000004</v>
       </c>
       <c r="F29">
-        <v>300.642</v>
+        <v>313.19600000000003</v>
       </c>
       <c r="G29">
-        <v>2454.846</v>
+        <v>1368.972</v>
       </c>
       <c r="H29">
-        <v>4175.5879999999997</v>
+        <v>1785.048</v>
       </c>
       <c r="I29">
-        <v>1033.7260000000001</v>
+        <v>624.52599999999995</v>
       </c>
       <c r="J29">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1986.3019999999999</v>
+        <v>748.67200000000003</v>
       </c>
       <c r="O29">
-        <v>2820.7130000000002</v>
+        <v>758.58799999999997</v>
       </c>
       <c r="P29">
-        <v>1469</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>24.125</v>
+        <v>-6.9349999999999996</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>14998</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>1354.875</v>
+        <v>1026.46</v>
       </c>
       <c r="U29">
-        <v>297.30700000000002</v>
+        <v>281.75700000000001</v>
       </c>
       <c r="V29">
-        <v>68.337999999999994</v>
+        <v>84.025000000000006</v>
       </c>
       <c r="W29">
-        <v>-63.959000000000003</v>
+        <v>-31.292000000000002</v>
       </c>
       <c r="X29">
-        <v>5.88</v>
+        <v>-70.938999999999993</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>3.528</v>
       </c>
       <c r="AA29">
-        <v>119.18600000000001</v>
+        <v>83.742999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>152.55600000000001</v>
+        <v>85.254000000000005</v>
       </c>
       <c r="D30">
-        <v>3959.7860000000001</v>
+        <v>1952.0219999999999</v>
       </c>
       <c r="E30">
-        <v>2113.9299999999998</v>
+        <v>911.78</v>
       </c>
       <c r="F30">
-        <v>320.25</v>
+        <v>322.75400000000002</v>
       </c>
       <c r="G30">
-        <v>2510.9360000000001</v>
+        <v>1389.1559999999999</v>
       </c>
       <c r="H30">
-        <v>4235.8339999999998</v>
+        <v>1811.307</v>
       </c>
       <c r="I30">
-        <v>1000.3049999999999</v>
+        <v>530.75199999999995</v>
       </c>
       <c r="J30">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1987.4490000000001</v>
+        <v>757.61900000000003</v>
       </c>
       <c r="O30">
-        <v>2810.0889999999999</v>
+        <v>769.05799999999999</v>
       </c>
       <c r="P30">
-        <v>1465</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>36.582999999999998</v>
+        <v>57.128</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>15074</v>
+        <v>7332</v>
       </c>
       <c r="T30">
-        <v>1425.7449999999999</v>
+        <v>1042.249</v>
       </c>
       <c r="U30">
-        <v>333.89</v>
+        <v>338.88499999999999</v>
       </c>
       <c r="V30">
-        <v>165.65199999999999</v>
+        <v>128.75200000000001</v>
       </c>
       <c r="W30">
-        <v>-65.456999999999994</v>
+        <v>-31.167000000000002</v>
       </c>
       <c r="X30">
-        <v>-110.902</v>
+        <v>-73.105999999999995</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>13.345000000000001</v>
       </c>
       <c r="AA30">
-        <v>152.55600000000001</v>
+        <v>85.254000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>142.297</v>
+        <v>86.317999999999998</v>
       </c>
       <c r="D31">
-        <v>3925.3270000000002</v>
+        <v>1985.212</v>
       </c>
       <c r="E31">
-        <v>2180.3609999999999</v>
+        <v>1006.355</v>
       </c>
       <c r="F31">
-        <v>297.62799999999999</v>
+        <v>184.27500000000001</v>
       </c>
       <c r="G31">
-        <v>2591.0129999999999</v>
+        <v>1451.8679999999999</v>
       </c>
       <c r="H31">
-        <v>4307.7759999999998</v>
+        <v>1873.7860000000001</v>
       </c>
       <c r="I31">
-        <v>990.06500000000005</v>
+        <v>672.62300000000005</v>
       </c>
       <c r="J31">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-2183</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1994.41</v>
+        <v>782.73800000000006</v>
       </c>
       <c r="O31">
-        <v>2823.1039999999998</v>
+        <v>794.84799999999996</v>
       </c>
       <c r="P31">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>15.891999999999999</v>
+        <v>40.960999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>15088</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1484.672</v>
+        <v>1078.9380000000001</v>
       </c>
       <c r="U31">
-        <v>349.78199999999998</v>
+        <v>379.846</v>
       </c>
       <c r="V31">
-        <v>200.57</v>
+        <v>25.731999999999999</v>
       </c>
       <c r="W31">
-        <v>-65.382000000000005</v>
+        <v>-37.996000000000002</v>
       </c>
       <c r="X31">
-        <v>-170.67599999999999</v>
+        <v>-62.131999999999998</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>81.31</v>
       </c>
       <c r="AA31">
-        <v>142.297</v>
+        <v>86.317999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>159.16300000000001</v>
+        <v>90.418000000000006</v>
       </c>
       <c r="D32">
-        <v>4276.0370000000003</v>
+        <v>2321.7060000000001</v>
       </c>
       <c r="E32">
-        <v>2384.7069999999999</v>
+        <v>1148.7270000000001</v>
       </c>
       <c r="F32">
-        <v>330.85300000000001</v>
+        <v>194.66499999999999</v>
       </c>
       <c r="G32">
-        <v>2758.6559999999999</v>
+        <v>1529.896</v>
       </c>
       <c r="H32">
-        <v>4453.2839999999997</v>
+        <v>1956.124</v>
       </c>
       <c r="I32">
-        <v>1059.6690000000001</v>
+        <v>758.00900000000001</v>
       </c>
       <c r="J32">
-        <v>1341.0540000000001</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1524.7270000000001</v>
+        <v>849.65499999999997</v>
       </c>
       <c r="O32">
-        <v>2935.125</v>
+        <v>861.62699999999995</v>
       </c>
       <c r="P32">
-        <v>1407.0540000000001</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>-39.207000000000001</v>
+        <v>-61.133000000000003</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>15177</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>1518.1590000000001</v>
+        <v>1094.4970000000001</v>
       </c>
       <c r="U32">
-        <v>310.57499999999999</v>
+        <v>318.71300000000002</v>
       </c>
       <c r="V32">
-        <v>107.9</v>
+        <v>37.453000000000003</v>
       </c>
       <c r="W32">
-        <v>-65.177000000000007</v>
+        <v>-37.807000000000002</v>
       </c>
       <c r="X32">
-        <v>-120.41500000000001</v>
+        <v>-83.513000000000005</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-3.85</v>
       </c>
       <c r="AA32">
-        <v>159.16300000000001</v>
+        <v>90.418000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>175.89500000000001</v>
+        <v>93.56</v>
       </c>
       <c r="D33">
-        <v>4291.8999999999996</v>
+        <v>2316.5929999999998</v>
       </c>
       <c r="E33">
-        <v>2453.355</v>
+        <v>1117.9649999999999</v>
       </c>
       <c r="F33">
-        <v>358.745</v>
+        <v>199.25700000000001</v>
       </c>
       <c r="G33">
-        <v>2805.0650000000001</v>
+        <v>1456.645</v>
       </c>
       <c r="H33">
-        <v>4492.7219999999998</v>
+        <v>1922.624</v>
       </c>
       <c r="I33">
-        <v>1077.78</v>
+        <v>695.7</v>
       </c>
       <c r="J33">
-        <v>1341.3030000000001</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1515.3320000000001</v>
+        <v>810.08199999999999</v>
       </c>
       <c r="O33">
-        <v>2926.1190000000001</v>
+        <v>821.91300000000001</v>
       </c>
       <c r="P33">
-        <v>1341.3030000000001</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>-12.773999999999999</v>
+        <v>-6.7960000000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>15189</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>1566.6030000000001</v>
+        <v>1100.711</v>
       </c>
       <c r="U33">
-        <v>297.80099999999999</v>
+        <v>311.91699999999997</v>
       </c>
       <c r="V33">
-        <v>220.41300000000001</v>
+        <v>112.146</v>
       </c>
       <c r="W33">
-        <v>-64.599000000000004</v>
+        <v>-37.673999999999999</v>
       </c>
       <c r="X33">
-        <v>-204.328</v>
+        <v>-97.89</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>36.075000000000003</v>
       </c>
       <c r="AA33">
-        <v>175.89500000000001</v>
+        <v>93.56</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>187.15</v>
+        <v>88.881</v>
       </c>
       <c r="D34">
-        <v>4137.9080000000004</v>
+        <v>1955.1030000000001</v>
       </c>
       <c r="E34">
-        <v>2322.0729999999999</v>
+        <v>828.88400000000001</v>
       </c>
       <c r="F34">
-        <v>374.46699999999998</v>
+        <v>194.94399999999999</v>
       </c>
       <c r="G34">
-        <v>2753.0740000000001</v>
+        <v>1347.8710000000001</v>
       </c>
       <c r="H34">
-        <v>4427.4120000000003</v>
+        <v>1815.721</v>
       </c>
       <c r="I34">
-        <v>971.02300000000002</v>
+        <v>485.16699999999997</v>
       </c>
       <c r="J34">
-        <v>1341.3520000000001</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1433.3230000000001</v>
+        <v>697.65300000000002</v>
       </c>
       <c r="O34">
-        <v>2832.3249999999998</v>
+        <v>708.5</v>
       </c>
       <c r="P34">
-        <v>1346.3520000000001</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>80.813999999999993</v>
+        <v>182.82599999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>15262</v>
+        <v>7961</v>
       </c>
       <c r="T34">
-        <v>1595.087</v>
+        <v>1107.221</v>
       </c>
       <c r="U34">
-        <v>378.61500000000001</v>
+        <v>494.74299999999999</v>
       </c>
       <c r="V34">
-        <v>264.01299999999998</v>
+        <v>272.24799999999999</v>
       </c>
       <c r="W34">
-        <v>-70.061000000000007</v>
+        <v>-37.718000000000004</v>
       </c>
       <c r="X34">
-        <v>-159.75800000000001</v>
+        <v>-82.504999999999995</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="AA34">
-        <v>187.15</v>
+        <v>88.881</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>161.78800000000001</v>
+        <v>85.382999999999996</v>
       </c>
       <c r="D35">
-        <v>3751.21</v>
+        <v>1688</v>
       </c>
       <c r="E35">
-        <v>2223.4870000000001</v>
+        <v>798.80399999999997</v>
       </c>
       <c r="F35">
-        <v>338.702</v>
+        <v>185.38</v>
       </c>
       <c r="G35">
-        <v>2728.3539999999998</v>
+        <v>1279.0070000000001</v>
       </c>
       <c r="H35">
-        <v>4697.4440000000004</v>
+        <v>1749.42</v>
       </c>
       <c r="I35">
-        <v>995.971</v>
+        <v>523.05100000000004</v>
       </c>
       <c r="J35">
-        <v>1341.605</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1429.664</v>
+        <v>634.47400000000005</v>
       </c>
       <c r="O35">
-        <v>3044.8829999999998</v>
+        <v>646.21699999999998</v>
       </c>
       <c r="P35">
-        <v>1606.3430000000001</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>66.858000000000004</v>
+        <v>-45.042999999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>15381</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>1652.5609999999999</v>
+        <v>1103.203</v>
       </c>
       <c r="U35">
-        <v>445.47300000000001</v>
+        <v>449.7</v>
       </c>
       <c r="V35">
-        <v>256.93099999999998</v>
+        <v>58.683</v>
       </c>
       <c r="W35">
-        <v>-69.742000000000004</v>
+        <v>-39.573</v>
       </c>
       <c r="X35">
-        <v>-134.79300000000001</v>
+        <v>-86.867999999999995</v>
       </c>
       <c r="Y35">
-        <v>211.06899999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA35">
-        <v>161.78800000000001</v>
+        <v>85.382999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>169.18</v>
+        <v>92.253</v>
       </c>
       <c r="D36">
-        <v>3908.84</v>
+        <v>1926.02</v>
       </c>
       <c r="E36">
-        <v>2279.261</v>
+        <v>920.68600000000004</v>
       </c>
       <c r="F36">
-        <v>356.33</v>
+        <v>199.96100000000001</v>
       </c>
       <c r="G36">
-        <v>2706.5729999999999</v>
+        <v>1316.875</v>
       </c>
       <c r="H36">
-        <v>4684.1090000000004</v>
+        <v>1803.671</v>
       </c>
       <c r="I36">
-        <v>1064.432</v>
+        <v>595.44000000000005</v>
       </c>
       <c r="J36">
-        <v>1253.8489999999999</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1496.34</v>
+        <v>690.053</v>
       </c>
       <c r="O36">
-        <v>3024.7979999999998</v>
+        <v>702.36199999999997</v>
       </c>
       <c r="P36">
-        <v>1524.471</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-90.165999999999997</v>
+        <v>-92.828999999999994</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>15557</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>1659.3109999999999</v>
+        <v>1101.309</v>
       </c>
       <c r="U36">
-        <v>355.30700000000002</v>
+        <v>356.87099999999998</v>
       </c>
       <c r="V36">
-        <v>199.595</v>
+        <v>27.654</v>
       </c>
       <c r="W36">
-        <v>-69.268000000000001</v>
+        <v>-41.274999999999999</v>
       </c>
       <c r="X36">
-        <v>-255.56700000000001</v>
+        <v>-103.565</v>
       </c>
       <c r="Y36">
-        <v>215.83</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="AA36">
-        <v>169.18</v>
+        <v>92.253</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>146.89400000000001</v>
+        <v>95.46</v>
       </c>
       <c r="D37">
-        <v>3856.1320000000001</v>
+        <v>1954.8030000000001</v>
       </c>
       <c r="E37">
-        <v>2225.018</v>
+        <v>884.56500000000005</v>
       </c>
       <c r="F37">
-        <v>312.86799999999999</v>
+        <v>203.816</v>
       </c>
       <c r="G37">
-        <v>2683.1660000000002</v>
+        <v>1312.28</v>
       </c>
       <c r="H37">
-        <v>4636.549</v>
+        <v>1842.0329999999999</v>
       </c>
       <c r="I37">
-        <v>1019.28</v>
+        <v>590.798</v>
       </c>
       <c r="J37">
-        <v>1253.0909999999999</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1434.14</v>
+        <v>698.02099999999996</v>
       </c>
       <c r="O37">
-        <v>2963.453</v>
+        <v>723.79</v>
       </c>
       <c r="P37">
-        <v>1525.548</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>29.117000000000001</v>
+        <v>19.402999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>15582</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>1673.096</v>
+        <v>1118.2429999999999</v>
       </c>
       <c r="U37">
-        <v>384.42399999999998</v>
+        <v>376.274</v>
       </c>
       <c r="V37">
-        <v>167.33199999999999</v>
+        <v>156.03399999999999</v>
       </c>
       <c r="W37">
-        <v>-68.855000000000004</v>
+        <v>-41.174999999999997</v>
       </c>
       <c r="X37">
-        <v>-126.718</v>
+        <v>-86.260999999999996</v>
       </c>
       <c r="Y37">
-        <v>216.61</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-11.298</v>
       </c>
       <c r="AA37">
-        <v>146.89400000000001</v>
+        <v>95.46</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>99.105999999999995</v>
+        <v>87.733999999999995</v>
       </c>
       <c r="D38">
-        <v>3793.326</v>
+        <v>2008.366</v>
       </c>
       <c r="E38">
-        <v>2107.2550000000001</v>
+        <v>885.54300000000001</v>
       </c>
       <c r="F38">
-        <v>279.88200000000001</v>
+        <v>195.23400000000001</v>
       </c>
       <c r="G38">
-        <v>2640.1179999999999</v>
+        <v>1307.269</v>
       </c>
       <c r="H38">
-        <v>4641.0600000000004</v>
+        <v>1834.248</v>
       </c>
       <c r="I38">
-        <v>984.60400000000004</v>
+        <v>529.25599999999997</v>
       </c>
       <c r="J38">
-        <v>1092.4480000000001</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1556.038</v>
+        <v>731.80700000000002</v>
       </c>
       <c r="O38">
-        <v>2970.33</v>
+        <v>754.34799999999996</v>
       </c>
       <c r="P38">
-        <v>1556.057</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>63.433999999999997</v>
+        <v>-38.966000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>15427</v>
+        <v>7347</v>
       </c>
       <c r="T38">
-        <v>1670.73</v>
+        <v>1079.9000000000001</v>
       </c>
       <c r="U38">
-        <v>447.858</v>
+        <v>337.30799999999999</v>
       </c>
       <c r="V38">
-        <v>211.56100000000001</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="W38">
-        <v>-69.921000000000006</v>
+        <v>-40.841999999999999</v>
       </c>
       <c r="X38">
-        <v>-134.17500000000001</v>
+        <v>-125.37</v>
       </c>
       <c r="Y38">
-        <v>259.44400000000002</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-39.31</v>
       </c>
       <c r="AA38">
-        <v>99.105999999999995</v>
+        <v>87.733999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>78.146000000000001</v>
+        <v>84.012</v>
       </c>
       <c r="D39">
-        <v>3805.0079999999998</v>
+        <v>2074.6170000000002</v>
       </c>
       <c r="E39">
-        <v>2216.1709999999998</v>
+        <v>1002.807</v>
       </c>
       <c r="F39">
-        <v>237.733</v>
+        <v>185.846</v>
       </c>
       <c r="G39">
-        <v>2606.6390000000001</v>
+        <v>1323.4380000000001</v>
       </c>
       <c r="H39">
-        <v>4848.32</v>
+        <v>1842.2070000000001</v>
       </c>
       <c r="I39">
-        <v>1098.905</v>
+        <v>643.23500000000001</v>
       </c>
       <c r="J39">
-        <v>1092.6600000000001</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-587.6</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1804.7249999999999</v>
+        <v>756.06</v>
       </c>
       <c r="O39">
-        <v>3261.2020000000002</v>
+        <v>779.11199999999997</v>
       </c>
       <c r="P39">
-        <v>1770.21</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-153.286</v>
+        <v>-107.663</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>15450</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>1587.1179999999999</v>
+        <v>1063.095</v>
       </c>
       <c r="U39">
-        <v>294.572</v>
+        <v>229.64500000000001</v>
       </c>
       <c r="V39">
-        <v>58.499000000000002</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="W39">
-        <v>-69.870999999999995</v>
+        <v>-42.408999999999999</v>
       </c>
       <c r="X39">
-        <v>37.04</v>
+        <v>-102.86499999999999</v>
       </c>
       <c r="Y39">
-        <v>286.20999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-2.06</v>
       </c>
       <c r="AA39">
-        <v>78.146000000000001</v>
+        <v>84.012</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>143.93899999999999</v>
+        <v>97.225999999999999</v>
       </c>
       <c r="D40">
-        <v>3627.846</v>
+        <v>2453.982</v>
       </c>
       <c r="E40">
-        <v>2172.6060000000002</v>
+        <v>1150.2829999999999</v>
       </c>
       <c r="F40">
-        <v>313.97000000000003</v>
+        <v>210.542</v>
       </c>
       <c r="G40">
-        <v>2603.9259999999999</v>
+        <v>1410.856</v>
       </c>
       <c r="H40">
-        <v>4825.6890000000003</v>
+        <v>1921.894</v>
       </c>
       <c r="I40">
-        <v>1246.675</v>
+        <v>697.375</v>
       </c>
       <c r="J40">
-        <v>1092.873</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1673.38</v>
+        <v>792.173</v>
       </c>
       <c r="O40">
-        <v>3121.3609999999999</v>
+        <v>817.02200000000005</v>
       </c>
       <c r="P40">
-        <v>1437.9159999999999</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>67.664000000000001</v>
+        <v>-63.52</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>15338</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>1704.328</v>
+        <v>1104.8720000000001</v>
       </c>
       <c r="U40">
-        <v>362.23599999999999</v>
+        <v>166.125</v>
       </c>
       <c r="V40">
-        <v>447.14400000000001</v>
+        <v>5.9480000000000004</v>
       </c>
       <c r="W40">
-        <v>-67.233000000000004</v>
+        <v>-42.226999999999997</v>
       </c>
       <c r="X40">
-        <v>-380.37799999999999</v>
+        <v>-57.706000000000003</v>
       </c>
       <c r="Y40">
-        <v>280.44799999999998</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>4.298</v>
       </c>
       <c r="AA40">
-        <v>143.93899999999999</v>
+        <v>97.225999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>136.529</v>
+        <v>102.627</v>
       </c>
       <c r="D41">
-        <v>4224.8</v>
+        <v>2420.357</v>
       </c>
       <c r="E41">
-        <v>2534.357</v>
+        <v>1142.4570000000001</v>
       </c>
       <c r="F41">
-        <v>286.36900000000003</v>
+        <v>220.63300000000001</v>
       </c>
       <c r="G41">
-        <v>2852.6990000000001</v>
+        <v>1466.94</v>
       </c>
       <c r="H41">
-        <v>5074.8379999999997</v>
+        <v>1982.0840000000001</v>
       </c>
       <c r="I41">
-        <v>1196.797</v>
+        <v>670.91</v>
       </c>
       <c r="J41">
-        <v>1093.087</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1760.979</v>
+        <v>789.48500000000001</v>
       </c>
       <c r="O41">
-        <v>3201.4789999999998</v>
+        <v>811.50400000000002</v>
       </c>
       <c r="P41">
-        <v>1498.97</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>-109.667</v>
+        <v>83.308000000000007</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>15177</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>1873.3589999999999</v>
+        <v>1170.58</v>
       </c>
       <c r="U41">
-        <v>252.56899999999999</v>
+        <v>249.43299999999999</v>
       </c>
       <c r="V41">
-        <v>-168.59399999999999</v>
+        <v>127.26300000000001</v>
       </c>
       <c r="W41">
-        <v>-70.323999999999998</v>
+        <v>-42.073</v>
       </c>
       <c r="X41">
-        <v>68.353999999999999</v>
+        <v>-53.463000000000001</v>
       </c>
       <c r="Y41">
-        <v>279.21199999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>15.24</v>
       </c>
       <c r="AA41">
-        <v>136.529</v>
+        <v>102.627</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>103.161</v>
+      </c>
+      <c r="D42">
+        <v>2325.3490000000002</v>
+      </c>
+      <c r="E42">
+        <v>1036.07</v>
+      </c>
+      <c r="F42">
+        <v>218.893</v>
+      </c>
+      <c r="G42">
+        <v>1481.768</v>
+      </c>
+      <c r="H42">
+        <v>1995.6990000000001</v>
+      </c>
+      <c r="I42">
+        <v>567.96100000000001</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>771.60699999999997</v>
+      </c>
+      <c r="O42">
+        <v>791.63099999999997</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>149.17400000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>7628</v>
+      </c>
+      <c r="T42">
+        <v>1204.068</v>
+      </c>
+      <c r="U42">
+        <v>398.60700000000003</v>
+      </c>
+      <c r="V42">
+        <v>207.643</v>
+      </c>
+      <c r="W42">
+        <v>-42.192999999999998</v>
+      </c>
+      <c r="X42">
+        <v>-75.099999999999994</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>24.881</v>
+      </c>
+      <c r="AA42">
+        <v>103.161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>97.028000000000006</v>
+      </c>
+      <c r="D43">
+        <v>2365.4720000000002</v>
+      </c>
+      <c r="E43">
+        <v>1175.7750000000001</v>
+      </c>
+      <c r="F43">
+        <v>215.232</v>
+      </c>
+      <c r="G43">
+        <v>1582.0709999999999</v>
+      </c>
+      <c r="H43">
+        <v>2096.3339999999998</v>
+      </c>
+      <c r="I43">
+        <v>709.12400000000002</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>851.75900000000001</v>
+      </c>
+      <c r="O43">
+        <v>868.80799999999999</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-39.271999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1227.5260000000001</v>
+      </c>
+      <c r="U43">
+        <v>359.33499999999998</v>
+      </c>
+      <c r="V43">
+        <v>52.613</v>
+      </c>
+      <c r="W43">
+        <v>-48.850999999999999</v>
+      </c>
+      <c r="X43">
+        <v>-89.475999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>8.327</v>
+      </c>
+      <c r="AA43">
+        <v>97.028000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>111.023</v>
+      </c>
+      <c r="D44">
+        <v>2707.6619999999998</v>
+      </c>
+      <c r="E44">
+        <v>1311.192</v>
+      </c>
+      <c r="F44">
+        <v>238.92099999999999</v>
+      </c>
+      <c r="G44">
+        <v>1676.0809999999999</v>
+      </c>
+      <c r="H44">
+        <v>2193.797</v>
+      </c>
+      <c r="I44">
+        <v>758.02300000000002</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>889.88699999999994</v>
+      </c>
+      <c r="O44">
+        <v>905.37099999999998</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-43.438000000000002</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1288.4259999999999</v>
+      </c>
+      <c r="U44">
+        <v>315.89699999999999</v>
+      </c>
+      <c r="V44">
+        <v>26.241</v>
+      </c>
+      <c r="W44">
+        <v>-48.710999999999999</v>
+      </c>
+      <c r="X44">
+        <v>-60.933999999999997</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>111.023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>114.34699999999999</v>
+      </c>
+      <c r="D45">
+        <v>2694.9279999999999</v>
+      </c>
+      <c r="E45">
+        <v>1238.079</v>
+      </c>
+      <c r="F45">
+        <v>244.94900000000001</v>
+      </c>
+      <c r="G45">
+        <v>1656.748</v>
+      </c>
+      <c r="H45">
+        <v>2179.4380000000001</v>
+      </c>
+      <c r="I45">
+        <v>740.97699999999998</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>896.70899999999995</v>
+      </c>
+      <c r="O45">
+        <v>911.21400000000006</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>66.84</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1268.2239999999999</v>
+      </c>
+      <c r="U45">
+        <v>382.73700000000002</v>
+      </c>
+      <c r="V45">
+        <v>214.70099999999999</v>
+      </c>
+      <c r="W45">
+        <v>-48.756</v>
+      </c>
+      <c r="X45">
+        <v>-142.24100000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>114.34699999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>109.214</v>
+      </c>
+      <c r="D46">
+        <v>2568.2840000000001</v>
+      </c>
+      <c r="E46">
+        <v>1189.6369999999999</v>
+      </c>
+      <c r="F46">
+        <v>237.32300000000001</v>
+      </c>
+      <c r="G46">
+        <v>1611.5429999999999</v>
+      </c>
+      <c r="H46">
+        <v>2138.0410000000002</v>
+      </c>
+      <c r="I46">
+        <v>642.67200000000003</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>876.63199999999995</v>
+      </c>
+      <c r="O46">
+        <v>889.56700000000001</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>-9.0679999999999996</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>8353</v>
+      </c>
+      <c r="T46">
+        <v>1248.4739999999999</v>
+      </c>
+      <c r="U46">
+        <v>373.66899999999998</v>
+      </c>
+      <c r="V46">
+        <v>136.15700000000001</v>
+      </c>
+      <c r="W46">
+        <v>-48.378999999999998</v>
+      </c>
+      <c r="X46">
+        <v>-122.447</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>109.214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>106.5</v>
+      </c>
+      <c r="D47">
+        <v>2552.114</v>
+      </c>
+      <c r="E47">
+        <v>1245.3789999999999</v>
+      </c>
+      <c r="F47">
+        <v>231.30799999999999</v>
+      </c>
+      <c r="G47">
+        <v>1601.1310000000001</v>
+      </c>
+      <c r="H47">
+        <v>2134.2849999999999</v>
+      </c>
+      <c r="I47">
+        <v>747.63800000000003</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>871.86699999999996</v>
+      </c>
+      <c r="O47">
+        <v>886.17200000000003</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-62.304000000000002</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1248.1130000000001</v>
+      </c>
+      <c r="U47">
+        <v>311.36500000000001</v>
+      </c>
+      <c r="V47">
+        <v>77.084000000000003</v>
+      </c>
+      <c r="W47">
+        <v>-54.725000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-125.33</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>114.58199999999999</v>
+      </c>
+      <c r="D48">
+        <v>2955.7139999999999</v>
+      </c>
+      <c r="E48">
+        <v>1415.39</v>
+      </c>
+      <c r="F48">
+        <v>248.339</v>
+      </c>
+      <c r="G48">
+        <v>1707.6010000000001</v>
+      </c>
+      <c r="H48">
+        <v>2239.9989999999998</v>
+      </c>
+      <c r="I48">
+        <v>834.69200000000001</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>949.34100000000001</v>
+      </c>
+      <c r="O48">
+        <v>961.80899999999997</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-70.738</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1278.19</v>
+      </c>
+      <c r="U48">
+        <v>240.62700000000001</v>
+      </c>
+      <c r="V48">
+        <v>32.944000000000003</v>
+      </c>
+      <c r="W48">
+        <v>-54.426000000000002</v>
+      </c>
+      <c r="X48">
+        <v>-90.546999999999997</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>114.58199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>116.33</v>
+      </c>
+      <c r="D49">
+        <v>2880.4090000000001</v>
+      </c>
+      <c r="E49">
+        <v>1334.577</v>
+      </c>
+      <c r="F49">
+        <v>253.328</v>
+      </c>
+      <c r="G49">
+        <v>1726.1659999999999</v>
+      </c>
+      <c r="H49">
+        <v>2243.2669999999998</v>
+      </c>
+      <c r="I49">
+        <v>729.74400000000003</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>938.05499999999995</v>
+      </c>
+      <c r="O49">
+        <v>952.39200000000005</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>32.328000000000003</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1290.875</v>
+      </c>
+      <c r="U49">
+        <v>272.95499999999998</v>
+      </c>
+      <c r="V49">
+        <v>157.12799999999999</v>
+      </c>
+      <c r="W49">
+        <v>-54.122</v>
+      </c>
+      <c r="X49">
+        <v>-112.59</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>116.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>256.392</v>
+      </c>
+      <c r="D50">
+        <v>2970.8760000000002</v>
+      </c>
+      <c r="E50">
+        <v>1412.136</v>
+      </c>
+      <c r="F50">
+        <v>253.19</v>
+      </c>
+      <c r="G50">
+        <v>1672.29</v>
+      </c>
+      <c r="H50">
+        <v>2804.2249999999999</v>
+      </c>
+      <c r="I50">
+        <v>639.46</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1232.2170000000001</v>
+      </c>
+      <c r="O50">
+        <v>1299.8530000000001</v>
+      </c>
+      <c r="P50">
+        <v>253.64599999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-62.936</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>10929</v>
+      </c>
+      <c r="T50">
+        <v>1504.3720000000001</v>
+      </c>
+      <c r="U50">
+        <v>210.01900000000001</v>
+      </c>
+      <c r="V50">
+        <v>193.18600000000001</v>
+      </c>
+      <c r="W50">
+        <v>-112.08</v>
+      </c>
+      <c r="X50">
+        <v>64.129000000000005</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>256.392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>103.343</v>
+      </c>
+      <c r="D51">
+        <v>2994.2669999999998</v>
+      </c>
+      <c r="E51">
+        <v>1469.826</v>
+      </c>
+      <c r="F51">
+        <v>243.077</v>
+      </c>
+      <c r="G51">
+        <v>1690.579</v>
+      </c>
+      <c r="H51">
+        <v>2830.56</v>
+      </c>
+      <c r="I51">
+        <v>701.77</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>390.62900000000002</v>
+      </c>
+      <c r="L51">
+        <v>-871.01700000000005</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1249.4269999999999</v>
+      </c>
+      <c r="O51">
+        <v>1340.875</v>
+      </c>
+      <c r="P51">
+        <v>390.62900000000002</v>
+      </c>
+      <c r="Q51">
+        <v>-50.119</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1489.6849999999999</v>
+      </c>
+      <c r="U51">
+        <v>159.9</v>
+      </c>
+      <c r="V51">
+        <v>-58.05</v>
+      </c>
+      <c r="W51">
+        <v>-56.472999999999999</v>
+      </c>
+      <c r="X51">
+        <v>18.626999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>103.343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>111.872</v>
+      </c>
+      <c r="D52">
+        <v>3288.2620000000002</v>
+      </c>
+      <c r="E52">
+        <v>1570.886</v>
+      </c>
+      <c r="F52">
+        <v>266.59300000000002</v>
+      </c>
+      <c r="G52">
+        <v>1782.9680000000001</v>
+      </c>
+      <c r="H52">
+        <v>2921.5450000000001</v>
+      </c>
+      <c r="I52">
+        <v>747.02200000000005</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>365.65199999999999</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1330.9870000000001</v>
+      </c>
+      <c r="O52">
+        <v>1422.48</v>
+      </c>
+      <c r="P52">
+        <v>365.65199999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-9.8829999999999991</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1499.0650000000001</v>
+      </c>
+      <c r="U52">
+        <v>150.017</v>
+      </c>
+      <c r="V52">
+        <v>116.321</v>
+      </c>
+      <c r="W52">
+        <v>-56.558</v>
+      </c>
+      <c r="X52">
+        <v>-129.86699999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>111.872</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>107.73699999999999</v>
+      </c>
+      <c r="D53">
+        <v>3316.665</v>
+      </c>
+      <c r="E53">
+        <v>1564.9970000000001</v>
+      </c>
+      <c r="F53">
+        <v>258.91800000000001</v>
+      </c>
+      <c r="G53">
+        <v>1753.441</v>
+      </c>
+      <c r="H53">
+        <v>2891.5680000000002</v>
+      </c>
+      <c r="I53">
+        <v>757.55799999999999</v>
+      </c>
+      <c r="J53">
+        <v>500</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1306.231</v>
+      </c>
+      <c r="O53">
+        <v>1903.0050000000001</v>
+      </c>
+      <c r="P53">
+        <v>850</v>
+      </c>
+      <c r="Q53">
+        <v>-20.294</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>988.56299999999999</v>
+      </c>
+      <c r="U53">
+        <v>129.72300000000001</v>
+      </c>
+      <c r="V53">
+        <v>124.658</v>
+      </c>
+      <c r="W53">
+        <v>-54.098999999999997</v>
+      </c>
+      <c r="X53">
+        <v>-134.91399999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>107.73699999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>92.951999999999998</v>
+      </c>
+      <c r="D54">
+        <v>3152.8820000000001</v>
+      </c>
+      <c r="E54">
+        <v>1449.5809999999999</v>
+      </c>
+      <c r="F54">
+        <v>240.846</v>
+      </c>
+      <c r="G54">
+        <v>1664.4849999999999</v>
+      </c>
+      <c r="H54">
+        <v>2802.8180000000002</v>
+      </c>
+      <c r="I54">
+        <v>685.89</v>
+      </c>
+      <c r="J54">
+        <v>500</v>
+      </c>
+      <c r="K54">
+        <v>375</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1269.981</v>
+      </c>
+      <c r="O54">
+        <v>1863.0940000000001</v>
+      </c>
+      <c r="P54">
+        <v>875</v>
+      </c>
+      <c r="Q54">
+        <v>32.323999999999998</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>11676</v>
+      </c>
+      <c r="T54">
+        <v>939.72400000000005</v>
+      </c>
+      <c r="U54">
+        <v>162.047</v>
+      </c>
+      <c r="V54">
+        <v>164.84800000000001</v>
+      </c>
+      <c r="W54">
+        <v>-53.127000000000002</v>
+      </c>
+      <c r="X54">
+        <v>-118.75</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>92.951999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>93.186999999999998</v>
+      </c>
+      <c r="D55">
+        <v>3142.585</v>
+      </c>
+      <c r="E55">
+        <v>1612.0340000000001</v>
+      </c>
+      <c r="F55">
+        <v>236.93799999999999</v>
+      </c>
+      <c r="G55">
+        <v>1823.0820000000001</v>
+      </c>
+      <c r="H55">
+        <v>2960.1680000000001</v>
+      </c>
+      <c r="I55">
+        <v>782.91300000000001</v>
+      </c>
+      <c r="J55">
+        <v>500</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-1190</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1380.489</v>
+      </c>
+      <c r="O55">
+        <v>1978.5709999999999</v>
+      </c>
+      <c r="P55">
+        <v>910</v>
+      </c>
+      <c r="Q55">
+        <v>-19.234000000000002</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>981.59699999999998</v>
+      </c>
+      <c r="U55">
+        <v>142.81299999999999</v>
+      </c>
+      <c r="V55">
+        <v>14.44</v>
+      </c>
+      <c r="W55">
+        <v>-52.42</v>
+      </c>
+      <c r="X55">
+        <v>-21.431000000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>93.186999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>118.596</v>
+      </c>
+      <c r="D56">
+        <v>3502.9180000000001</v>
+      </c>
+      <c r="E56">
+        <v>1699.787</v>
+      </c>
+      <c r="F56">
+        <v>282.05099999999999</v>
+      </c>
+      <c r="G56">
+        <v>1909.201</v>
+      </c>
+      <c r="H56">
+        <v>3037.1060000000002</v>
+      </c>
+      <c r="I56">
+        <v>815.24900000000002</v>
+      </c>
+      <c r="J56">
+        <v>500</v>
+      </c>
+      <c r="K56">
+        <v>400</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1430.998</v>
+      </c>
+      <c r="O56">
+        <v>2027.0050000000001</v>
+      </c>
+      <c r="P56">
+        <v>900</v>
+      </c>
+      <c r="Q56">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>11645</v>
+      </c>
+      <c r="T56">
+        <v>1010.101</v>
+      </c>
+      <c r="U56">
+        <v>144.215</v>
+      </c>
+      <c r="V56">
+        <v>113.928</v>
+      </c>
+      <c r="W56">
+        <v>-52.488999999999997</v>
+      </c>
+      <c r="X56">
+        <v>-106.02</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>118.596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>124.98099999999999</v>
+      </c>
+      <c r="D57">
+        <v>3467.3620000000001</v>
+      </c>
+      <c r="E57">
+        <v>1640.634</v>
+      </c>
+      <c r="F57">
+        <v>282.94299999999998</v>
+      </c>
+      <c r="G57">
+        <v>1824.7159999999999</v>
+      </c>
+      <c r="H57">
+        <v>2941.7840000000001</v>
+      </c>
+      <c r="I57">
+        <v>767.16399999999999</v>
+      </c>
+      <c r="J57">
+        <v>500</v>
+      </c>
+      <c r="K57">
+        <v>345</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1329.202</v>
+      </c>
+      <c r="O57">
+        <v>1923.067</v>
+      </c>
+      <c r="P57">
+        <v>845</v>
+      </c>
+      <c r="Q57">
+        <v>-16.498999999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1018.717</v>
+      </c>
+      <c r="U57">
+        <v>127.71599999999999</v>
+      </c>
+      <c r="V57">
+        <v>176.95400000000001</v>
+      </c>
+      <c r="W57">
+        <v>-52.680999999999997</v>
+      </c>
+      <c r="X57">
+        <v>-181.04300000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>124.98099999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>112.947</v>
+      </c>
+      <c r="D58">
+        <v>3357.2020000000002</v>
+      </c>
+      <c r="E58">
+        <v>1571.5909999999999</v>
+      </c>
+      <c r="F58">
+        <v>266.69900000000001</v>
+      </c>
+      <c r="G58">
+        <v>2105.4589999999998</v>
+      </c>
+      <c r="H58">
+        <v>3214.3380000000002</v>
+      </c>
+      <c r="I58">
+        <v>716.654</v>
+      </c>
+      <c r="J58">
+        <v>500</v>
+      </c>
+      <c r="K58">
+        <v>605</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1575.86</v>
+      </c>
+      <c r="O58">
+        <v>2167.3229999999999</v>
+      </c>
+      <c r="P58">
+        <v>1105</v>
+      </c>
+      <c r="Q58">
+        <v>1.224</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>11521</v>
+      </c>
+      <c r="T58">
+        <v>1047.0150000000001</v>
+      </c>
+      <c r="U58">
+        <v>128.94</v>
+      </c>
+      <c r="V58">
+        <v>208.10400000000001</v>
+      </c>
+      <c r="W58">
+        <v>-57.417999999999999</v>
+      </c>
+      <c r="X58">
+        <v>164.857</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>112.947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>106.476</v>
+      </c>
+      <c r="D59">
+        <v>3300.89</v>
+      </c>
+      <c r="E59">
+        <v>1651.4269999999999</v>
+      </c>
+      <c r="F59">
+        <v>269.96600000000001</v>
+      </c>
+      <c r="G59">
+        <v>1846.915</v>
+      </c>
+      <c r="H59">
+        <v>3309.2240000000002</v>
+      </c>
+      <c r="I59">
+        <v>791.72199999999998</v>
+      </c>
+      <c r="J59">
+        <v>500</v>
+      </c>
+      <c r="K59">
+        <v>630</v>
+      </c>
+      <c r="L59">
+        <v>-2000</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1651.096</v>
+      </c>
+      <c r="O59">
+        <v>2251.2040000000002</v>
+      </c>
+      <c r="P59">
+        <v>1130</v>
+      </c>
+      <c r="Q59">
+        <v>6.843</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1058.02</v>
+      </c>
+      <c r="U59">
+        <v>135.78299999999999</v>
+      </c>
+      <c r="V59">
+        <v>100.395</v>
+      </c>
+      <c r="W59">
+        <v>-57.335000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-67.832999999999998</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>106.476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>137.208</v>
+      </c>
+      <c r="D60">
+        <v>3545.0880000000002</v>
+      </c>
+      <c r="E60">
+        <v>1706.4290000000001</v>
+      </c>
+      <c r="F60">
+        <v>320.01900000000001</v>
+      </c>
+      <c r="G60">
+        <v>1944.3389999999999</v>
+      </c>
+      <c r="H60">
+        <v>3404.0140000000001</v>
+      </c>
+      <c r="I60">
+        <v>832.86099999999999</v>
+      </c>
+      <c r="J60">
+        <v>500</v>
+      </c>
+      <c r="K60">
+        <v>630</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1694.818</v>
+      </c>
+      <c r="O60">
+        <v>2292.163</v>
+      </c>
+      <c r="P60">
+        <v>1130</v>
+      </c>
+      <c r="Q60">
+        <v>35.667999999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1111.8510000000001</v>
+      </c>
+      <c r="U60">
+        <v>171.45099999999999</v>
+      </c>
+      <c r="V60">
+        <v>150.80099999999999</v>
+      </c>
+      <c r="W60">
+        <v>-57.182000000000002</v>
+      </c>
+      <c r="X60">
+        <v>-105.899</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>137.208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>139.43199999999999</v>
+      </c>
+      <c r="D61">
+        <v>3419.2530000000002</v>
+      </c>
+      <c r="E61">
+        <v>1651.7940000000001</v>
+      </c>
+      <c r="F61">
+        <v>324.49799999999999</v>
+      </c>
+      <c r="G61">
+        <v>1856.211</v>
+      </c>
+      <c r="H61">
+        <v>3312.5650000000001</v>
+      </c>
+      <c r="I61">
+        <v>799.30700000000002</v>
+      </c>
+      <c r="J61">
+        <v>500</v>
+      </c>
+      <c r="K61">
+        <v>530</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1581.259</v>
+      </c>
+      <c r="O61">
+        <v>2181.2020000000002</v>
+      </c>
+      <c r="P61">
+        <v>1030</v>
+      </c>
+      <c r="Q61">
+        <v>-28.364000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1131.3630000000001</v>
+      </c>
+      <c r="U61">
+        <v>143.08699999999999</v>
+      </c>
+      <c r="V61">
+        <v>213.24700000000001</v>
+      </c>
+      <c r="W61">
+        <v>-56.930999999999997</v>
+      </c>
+      <c r="X61">
+        <v>-224.477</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>139.43199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>126.583</v>
+      </c>
+      <c r="D62">
+        <v>3210.8530000000001</v>
+      </c>
+      <c r="E62">
+        <v>1505.62</v>
+      </c>
+      <c r="F62">
+        <v>302.58699999999999</v>
+      </c>
+      <c r="G62">
+        <v>1730.6980000000001</v>
+      </c>
+      <c r="H62">
+        <v>3184.3580000000002</v>
+      </c>
+      <c r="I62">
+        <v>697.58500000000004</v>
+      </c>
+      <c r="J62">
+        <v>500</v>
+      </c>
+      <c r="K62">
+        <v>450</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1448.597</v>
+      </c>
+      <c r="O62">
+        <v>2033.9079999999999</v>
+      </c>
+      <c r="P62">
+        <v>950</v>
+      </c>
+      <c r="Q62">
+        <v>25.141999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>13159</v>
+      </c>
+      <c r="T62">
+        <v>1150.45</v>
+      </c>
+      <c r="U62">
+        <v>168.22900000000001</v>
+      </c>
+      <c r="V62">
+        <v>253.893</v>
+      </c>
+      <c r="W62">
+        <v>-64.167000000000002</v>
+      </c>
+      <c r="X62">
+        <v>-209.53200000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>126.583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>118.96299999999999</v>
+      </c>
+      <c r="D63">
+        <v>3073.9430000000002</v>
+      </c>
+      <c r="E63">
+        <v>1463.24</v>
+      </c>
+      <c r="F63">
+        <v>285.83800000000002</v>
+      </c>
+      <c r="G63">
+        <v>1705.7159999999999</v>
+      </c>
+      <c r="H63">
+        <v>3162.2449999999999</v>
+      </c>
+      <c r="I63">
+        <v>690.69200000000001</v>
+      </c>
+      <c r="J63">
+        <v>500</v>
+      </c>
+      <c r="K63">
+        <v>470</v>
+      </c>
+      <c r="L63">
+        <v>-1460</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1372.0550000000001</v>
+      </c>
+      <c r="O63">
+        <v>1970.4390000000001</v>
+      </c>
+      <c r="P63">
+        <v>970</v>
+      </c>
+      <c r="Q63">
+        <v>11.177</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1191.806</v>
+      </c>
+      <c r="U63">
+        <v>179.40600000000001</v>
+      </c>
+      <c r="V63">
+        <v>104.15</v>
+      </c>
+      <c r="W63">
+        <v>-63.887999999999998</v>
+      </c>
+      <c r="X63">
+        <v>-76.59</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>118.96299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>143.09</v>
+      </c>
+      <c r="D64">
+        <v>3299.741</v>
+      </c>
+      <c r="E64">
+        <v>1602.6310000000001</v>
+      </c>
+      <c r="F64">
+        <v>323.964</v>
+      </c>
+      <c r="G64">
+        <v>1879.1020000000001</v>
+      </c>
+      <c r="H64">
+        <v>3349.07</v>
+      </c>
+      <c r="I64">
+        <v>757.79200000000003</v>
+      </c>
+      <c r="J64">
+        <v>500</v>
+      </c>
+      <c r="K64">
+        <v>465</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1491.4570000000001</v>
+      </c>
+      <c r="O64">
+        <v>2086.23</v>
+      </c>
+      <c r="P64">
+        <v>965</v>
+      </c>
+      <c r="Q64">
+        <v>27.677</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1262.8399999999999</v>
+      </c>
+      <c r="U64">
+        <v>207.083</v>
+      </c>
+      <c r="V64">
+        <v>143.11099999999999</v>
+      </c>
+      <c r="W64">
+        <v>-63.631999999999998</v>
+      </c>
+      <c r="X64">
+        <v>-87.075000000000003</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>143.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>129.02799999999999</v>
+      </c>
+      <c r="D65">
+        <v>3355.7539999999999</v>
+      </c>
+      <c r="E65">
+        <v>1682.6859999999999</v>
+      </c>
+      <c r="F65">
+        <v>301.57900000000001</v>
+      </c>
+      <c r="G65">
+        <v>1967.549</v>
+      </c>
+      <c r="H65">
+        <v>3664.0619999999999</v>
+      </c>
+      <c r="I65">
+        <v>820.29899999999998</v>
+      </c>
+      <c r="J65">
+        <v>500</v>
+      </c>
+      <c r="K65">
+        <v>725</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1799.797</v>
+      </c>
+      <c r="O65">
+        <v>2394.3939999999998</v>
+      </c>
+      <c r="P65">
+        <v>1225</v>
+      </c>
+      <c r="Q65">
+        <v>17.366</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1269.6679999999999</v>
+      </c>
+      <c r="U65">
+        <v>224.44900000000001</v>
+      </c>
+      <c r="V65">
+        <v>129.56700000000001</v>
+      </c>
+      <c r="W65">
+        <v>-63.609000000000002</v>
+      </c>
+      <c r="X65">
+        <v>135.441</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>129.02799999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>122.303</v>
+      </c>
+      <c r="D66">
+        <v>3414.9749999999999</v>
+      </c>
+      <c r="E66">
+        <v>1711.191</v>
+      </c>
+      <c r="F66">
+        <v>301.21100000000001</v>
+      </c>
+      <c r="G66">
+        <v>2008.1020000000001</v>
+      </c>
+      <c r="H66">
+        <v>3687.7579999999998</v>
+      </c>
+      <c r="I66">
+        <v>839.73599999999999</v>
+      </c>
+      <c r="J66">
+        <v>500</v>
+      </c>
+      <c r="K66">
+        <v>740</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1845.7180000000001</v>
+      </c>
+      <c r="O66">
+        <v>2429.9110000000001</v>
+      </c>
+      <c r="P66">
+        <v>1240</v>
+      </c>
+      <c r="Q66">
+        <v>23.216999999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>14125</v>
+      </c>
+      <c r="T66">
+        <v>1257.847</v>
+      </c>
+      <c r="U66">
+        <v>247.666</v>
+      </c>
+      <c r="V66">
+        <v>152.58000000000001</v>
+      </c>
+      <c r="W66">
+        <v>-54.301000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-99.075999999999993</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>122.303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>122.08</v>
+      </c>
+      <c r="D67">
+        <v>3415.125</v>
+      </c>
+      <c r="E67">
+        <v>1802.777</v>
+      </c>
+      <c r="F67">
+        <v>278.06200000000001</v>
+      </c>
+      <c r="G67">
+        <v>2092.61</v>
+      </c>
+      <c r="H67">
+        <v>3775.7440000000001</v>
+      </c>
+      <c r="I67">
+        <v>893.23699999999997</v>
+      </c>
+      <c r="J67">
+        <v>500</v>
+      </c>
+      <c r="K67">
+        <v>740</v>
+      </c>
+      <c r="L67">
+        <v>-2450</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1877.367</v>
+      </c>
+      <c r="O67">
+        <v>2459.87</v>
+      </c>
+      <c r="P67">
+        <v>1240</v>
+      </c>
+      <c r="Q67">
+        <v>-17.872</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>14432</v>
+      </c>
+      <c r="T67">
+        <v>1315.874</v>
+      </c>
+      <c r="U67">
+        <v>229.79400000000001</v>
+      </c>
+      <c r="V67">
+        <v>92.695999999999998</v>
+      </c>
+      <c r="W67">
+        <v>-64.596999999999994</v>
+      </c>
+      <c r="X67">
+        <v>-96.727999999999994</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>122.08</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>111.071</v>
+      </c>
+      <c r="D68">
+        <v>3710.018</v>
+      </c>
+      <c r="E68">
+        <v>1948.204</v>
+      </c>
+      <c r="F68">
+        <v>289.56900000000002</v>
+      </c>
+      <c r="G68">
+        <v>2285.0219999999999</v>
+      </c>
+      <c r="H68">
+        <v>3965.8890000000001</v>
+      </c>
+      <c r="I68">
+        <v>978.43100000000004</v>
+      </c>
+      <c r="J68">
+        <v>750</v>
+      </c>
+      <c r="K68">
+        <v>592</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1797.4939999999999</v>
+      </c>
+      <c r="O68">
+        <v>2628.681</v>
+      </c>
+      <c r="P68">
+        <v>1342</v>
+      </c>
+      <c r="Q68">
+        <v>43.387999999999998</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>14807</v>
+      </c>
+      <c r="T68">
+        <v>1337.2080000000001</v>
+      </c>
+      <c r="U68">
+        <v>273.18200000000002</v>
+      </c>
+      <c r="V68">
+        <v>57.314999999999998</v>
+      </c>
+      <c r="W68">
+        <v>-64.209000000000003</v>
+      </c>
+      <c r="X68">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>111.071</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>119.18600000000001</v>
+      </c>
+      <c r="D69">
+        <v>3784.451</v>
+      </c>
+      <c r="E69">
+        <v>2104.3139999999999</v>
+      </c>
+      <c r="F69">
+        <v>300.642</v>
+      </c>
+      <c r="G69">
+        <v>2454.846</v>
+      </c>
+      <c r="H69">
+        <v>4175.5879999999997</v>
+      </c>
+      <c r="I69">
+        <v>1033.7260000000001</v>
+      </c>
+      <c r="J69">
+        <v>750</v>
+      </c>
+      <c r="K69">
+        <v>719</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1986.3019999999999</v>
+      </c>
+      <c r="O69">
+        <v>2820.7130000000002</v>
+      </c>
+      <c r="P69">
+        <v>1469</v>
+      </c>
+      <c r="Q69">
+        <v>24.125</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>14998</v>
+      </c>
+      <c r="T69">
+        <v>1354.875</v>
+      </c>
+      <c r="U69">
+        <v>297.30700000000002</v>
+      </c>
+      <c r="V69">
+        <v>68.337999999999994</v>
+      </c>
+      <c r="W69">
+        <v>-63.959000000000003</v>
+      </c>
+      <c r="X69">
+        <v>5.88</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>119.18600000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>152.55600000000001</v>
+      </c>
+      <c r="D70">
+        <v>3959.7860000000001</v>
+      </c>
+      <c r="E70">
+        <v>2113.9299999999998</v>
+      </c>
+      <c r="F70">
+        <v>320.25</v>
+      </c>
+      <c r="G70">
+        <v>2510.9360000000001</v>
+      </c>
+      <c r="H70">
+        <v>4235.8339999999998</v>
+      </c>
+      <c r="I70">
+        <v>1000.3049999999999</v>
+      </c>
+      <c r="J70">
+        <v>750</v>
+      </c>
+      <c r="K70">
+        <v>715</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1987.4490000000001</v>
+      </c>
+      <c r="O70">
+        <v>2810.0889999999999</v>
+      </c>
+      <c r="P70">
+        <v>1465</v>
+      </c>
+      <c r="Q70">
+        <v>36.582999999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>15074</v>
+      </c>
+      <c r="T70">
+        <v>1425.7449999999999</v>
+      </c>
+      <c r="U70">
+        <v>333.89</v>
+      </c>
+      <c r="V70">
+        <v>165.65199999999999</v>
+      </c>
+      <c r="W70">
+        <v>-65.456999999999994</v>
+      </c>
+      <c r="X70">
+        <v>-110.902</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>152.55600000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>142.297</v>
+      </c>
+      <c r="D71">
+        <v>3925.3270000000002</v>
+      </c>
+      <c r="E71">
+        <v>2180.3609999999999</v>
+      </c>
+      <c r="F71">
+        <v>297.62799999999999</v>
+      </c>
+      <c r="G71">
+        <v>2591.0129999999999</v>
+      </c>
+      <c r="H71">
+        <v>4307.7759999999998</v>
+      </c>
+      <c r="I71">
+        <v>990.06500000000005</v>
+      </c>
+      <c r="J71">
+        <v>750</v>
+      </c>
+      <c r="K71">
+        <v>651</v>
+      </c>
+      <c r="L71">
+        <v>-2183</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1994.41</v>
+      </c>
+      <c r="O71">
+        <v>2823.1039999999998</v>
+      </c>
+      <c r="P71">
+        <v>1401</v>
+      </c>
+      <c r="Q71">
+        <v>15.891999999999999</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>15088</v>
+      </c>
+      <c r="T71">
+        <v>1484.672</v>
+      </c>
+      <c r="U71">
+        <v>349.78199999999998</v>
+      </c>
+      <c r="V71">
+        <v>200.57</v>
+      </c>
+      <c r="W71">
+        <v>-65.382000000000005</v>
+      </c>
+      <c r="X71">
+        <v>-170.67599999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>142.297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>159.16300000000001</v>
+      </c>
+      <c r="D72">
+        <v>4276.0370000000003</v>
+      </c>
+      <c r="E72">
+        <v>2384.7069999999999</v>
+      </c>
+      <c r="F72">
+        <v>330.85300000000001</v>
+      </c>
+      <c r="G72">
+        <v>2758.6559999999999</v>
+      </c>
+      <c r="H72">
+        <v>4453.2839999999997</v>
+      </c>
+      <c r="I72">
+        <v>1059.6690000000001</v>
+      </c>
+      <c r="J72">
+        <v>1341.0540000000001</v>
+      </c>
+      <c r="K72">
+        <v>66</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1524.7270000000001</v>
+      </c>
+      <c r="O72">
+        <v>2935.125</v>
+      </c>
+      <c r="P72">
+        <v>1407.0540000000001</v>
+      </c>
+      <c r="Q72">
+        <v>-39.207000000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>15177</v>
+      </c>
+      <c r="T72">
+        <v>1518.1590000000001</v>
+      </c>
+      <c r="U72">
+        <v>310.57499999999999</v>
+      </c>
+      <c r="V72">
+        <v>107.9</v>
+      </c>
+      <c r="W72">
+        <v>-65.177000000000007</v>
+      </c>
+      <c r="X72">
+        <v>-120.41500000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>159.16300000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>175.89500000000001</v>
+      </c>
+      <c r="D73">
+        <v>4291.8999999999996</v>
+      </c>
+      <c r="E73">
+        <v>2453.355</v>
+      </c>
+      <c r="F73">
+        <v>358.745</v>
+      </c>
+      <c r="G73">
+        <v>2805.0650000000001</v>
+      </c>
+      <c r="H73">
+        <v>4492.7219999999998</v>
+      </c>
+      <c r="I73">
+        <v>1077.78</v>
+      </c>
+      <c r="J73">
+        <v>1341.3030000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1515.3320000000001</v>
+      </c>
+      <c r="O73">
+        <v>2926.1190000000001</v>
+      </c>
+      <c r="P73">
+        <v>1341.3030000000001</v>
+      </c>
+      <c r="Q73">
+        <v>-12.773999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>15189</v>
+      </c>
+      <c r="T73">
+        <v>1566.6030000000001</v>
+      </c>
+      <c r="U73">
+        <v>297.80099999999999</v>
+      </c>
+      <c r="V73">
+        <v>220.41300000000001</v>
+      </c>
+      <c r="W73">
+        <v>-64.599000000000004</v>
+      </c>
+      <c r="X73">
+        <v>-204.328</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>175.89500000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>187.15</v>
+      </c>
+      <c r="D74">
+        <v>4137.9080000000004</v>
+      </c>
+      <c r="E74">
+        <v>2322.0729999999999</v>
+      </c>
+      <c r="F74">
+        <v>374.46699999999998</v>
+      </c>
+      <c r="G74">
+        <v>2753.0740000000001</v>
+      </c>
+      <c r="H74">
+        <v>4427.4120000000003</v>
+      </c>
+      <c r="I74">
+        <v>971.02300000000002</v>
+      </c>
+      <c r="J74">
+        <v>1341.3520000000001</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1433.3230000000001</v>
+      </c>
+      <c r="O74">
+        <v>2832.3249999999998</v>
+      </c>
+      <c r="P74">
+        <v>1346.3520000000001</v>
+      </c>
+      <c r="Q74">
+        <v>80.813999999999993</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>15262</v>
+      </c>
+      <c r="T74">
+        <v>1595.087</v>
+      </c>
+      <c r="U74">
+        <v>378.61500000000001</v>
+      </c>
+      <c r="V74">
+        <v>264.01299999999998</v>
+      </c>
+      <c r="W74">
+        <v>-70.061000000000007</v>
+      </c>
+      <c r="X74">
+        <v>-159.75800000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>187.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>161.78800000000001</v>
+      </c>
+      <c r="D75">
+        <v>3751.21</v>
+      </c>
+      <c r="E75">
+        <v>2223.4870000000001</v>
+      </c>
+      <c r="F75">
+        <v>338.702</v>
+      </c>
+      <c r="G75">
+        <v>2728.3539999999998</v>
+      </c>
+      <c r="H75">
+        <v>4697.4440000000004</v>
+      </c>
+      <c r="I75">
+        <v>995.971</v>
+      </c>
+      <c r="J75">
+        <v>1341.605</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-19</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1429.664</v>
+      </c>
+      <c r="O75">
+        <v>3044.8829999999998</v>
+      </c>
+      <c r="P75">
+        <v>1606.3430000000001</v>
+      </c>
+      <c r="Q75">
+        <v>66.858000000000004</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>15381</v>
+      </c>
+      <c r="T75">
+        <v>1652.5609999999999</v>
+      </c>
+      <c r="U75">
+        <v>445.47300000000001</v>
+      </c>
+      <c r="V75">
+        <v>256.93099999999998</v>
+      </c>
+      <c r="W75">
+        <v>-69.742000000000004</v>
+      </c>
+      <c r="X75">
+        <v>-134.79300000000001</v>
+      </c>
+      <c r="Y75">
+        <v>211.06899999999999</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>161.78800000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>169.18</v>
+      </c>
+      <c r="D76">
+        <v>3908.84</v>
+      </c>
+      <c r="E76">
+        <v>2279.261</v>
+      </c>
+      <c r="F76">
+        <v>356.33</v>
+      </c>
+      <c r="G76">
+        <v>2706.5729999999999</v>
+      </c>
+      <c r="H76">
+        <v>4684.1090000000004</v>
+      </c>
+      <c r="I76">
+        <v>1064.432</v>
+      </c>
+      <c r="J76">
+        <v>1253.8489999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1496.34</v>
+      </c>
+      <c r="O76">
+        <v>3024.7979999999998</v>
+      </c>
+      <c r="P76">
+        <v>1524.471</v>
+      </c>
+      <c r="Q76">
+        <v>-90.165999999999997</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>15557</v>
+      </c>
+      <c r="T76">
+        <v>1659.3109999999999</v>
+      </c>
+      <c r="U76">
+        <v>355.30700000000002</v>
+      </c>
+      <c r="V76">
+        <v>199.595</v>
+      </c>
+      <c r="W76">
+        <v>-69.268000000000001</v>
+      </c>
+      <c r="X76">
+        <v>-255.56700000000001</v>
+      </c>
+      <c r="Y76">
+        <v>215.83</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>169.18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>146.89400000000001</v>
+      </c>
+      <c r="D77">
+        <v>3856.1320000000001</v>
+      </c>
+      <c r="E77">
+        <v>2225.018</v>
+      </c>
+      <c r="F77">
+        <v>312.86799999999999</v>
+      </c>
+      <c r="G77">
+        <v>2683.1660000000002</v>
+      </c>
+      <c r="H77">
+        <v>4636.549</v>
+      </c>
+      <c r="I77">
+        <v>1019.28</v>
+      </c>
+      <c r="J77">
+        <v>1253.0909999999999</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1434.14</v>
+      </c>
+      <c r="O77">
+        <v>2963.453</v>
+      </c>
+      <c r="P77">
+        <v>1525.548</v>
+      </c>
+      <c r="Q77">
+        <v>29.117000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>15582</v>
+      </c>
+      <c r="T77">
+        <v>1673.096</v>
+      </c>
+      <c r="U77">
+        <v>384.42399999999998</v>
+      </c>
+      <c r="V77">
+        <v>167.33199999999999</v>
+      </c>
+      <c r="W77">
+        <v>-68.855000000000004</v>
+      </c>
+      <c r="X77">
+        <v>-126.718</v>
+      </c>
+      <c r="Y77">
+        <v>216.61</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>146.89400000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>99.105999999999995</v>
+      </c>
+      <c r="D78">
+        <v>3793.326</v>
+      </c>
+      <c r="E78">
+        <v>2107.2550000000001</v>
+      </c>
+      <c r="F78">
+        <v>279.88200000000001</v>
+      </c>
+      <c r="G78">
+        <v>2640.1179999999999</v>
+      </c>
+      <c r="H78">
+        <v>4641.0600000000004</v>
+      </c>
+      <c r="I78">
+        <v>984.60400000000004</v>
+      </c>
+      <c r="J78">
+        <v>1092.4480000000001</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1556.038</v>
+      </c>
+      <c r="O78">
+        <v>2970.33</v>
+      </c>
+      <c r="P78">
+        <v>1556.057</v>
+      </c>
+      <c r="Q78">
+        <v>63.433999999999997</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>15427</v>
+      </c>
+      <c r="T78">
+        <v>1670.73</v>
+      </c>
+      <c r="U78">
+        <v>447.858</v>
+      </c>
+      <c r="V78">
+        <v>211.56100000000001</v>
+      </c>
+      <c r="W78">
+        <v>-69.921000000000006</v>
+      </c>
+      <c r="X78">
+        <v>-134.17500000000001</v>
+      </c>
+      <c r="Y78">
+        <v>259.44400000000002</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>99.105999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>78.146000000000001</v>
+      </c>
+      <c r="D79">
+        <v>3805.0079999999998</v>
+      </c>
+      <c r="E79">
+        <v>2216.1709999999998</v>
+      </c>
+      <c r="F79">
+        <v>237.733</v>
+      </c>
+      <c r="G79">
+        <v>2606.6390000000001</v>
+      </c>
+      <c r="H79">
+        <v>4848.32</v>
+      </c>
+      <c r="I79">
+        <v>1098.905</v>
+      </c>
+      <c r="J79">
+        <v>1092.6600000000001</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-587.6</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1804.7249999999999</v>
+      </c>
+      <c r="O79">
+        <v>3261.2020000000002</v>
+      </c>
+      <c r="P79">
+        <v>1770.21</v>
+      </c>
+      <c r="Q79">
+        <v>-153.286</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>15450</v>
+      </c>
+      <c r="T79">
+        <v>1587.1179999999999</v>
+      </c>
+      <c r="U79">
+        <v>294.572</v>
+      </c>
+      <c r="V79">
+        <v>58.499000000000002</v>
+      </c>
+      <c r="W79">
+        <v>-69.870999999999995</v>
+      </c>
+      <c r="X79">
+        <v>37.04</v>
+      </c>
+      <c r="Y79">
+        <v>286.20999999999998</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>78.146000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>143.93899999999999</v>
+      </c>
+      <c r="D80">
+        <v>3627.846</v>
+      </c>
+      <c r="E80">
+        <v>2172.6060000000002</v>
+      </c>
+      <c r="F80">
+        <v>313.97000000000003</v>
+      </c>
+      <c r="G80">
+        <v>2603.9259999999999</v>
+      </c>
+      <c r="H80">
+        <v>4825.6890000000003</v>
+      </c>
+      <c r="I80">
+        <v>1246.675</v>
+      </c>
+      <c r="J80">
+        <v>1092.873</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1673.38</v>
+      </c>
+      <c r="O80">
+        <v>3121.3609999999999</v>
+      </c>
+      <c r="P80">
+        <v>1437.9159999999999</v>
+      </c>
+      <c r="Q80">
+        <v>67.664000000000001</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>15338</v>
+      </c>
+      <c r="T80">
+        <v>1704.328</v>
+      </c>
+      <c r="U80">
+        <v>362.23599999999999</v>
+      </c>
+      <c r="V80">
+        <v>447.14400000000001</v>
+      </c>
+      <c r="W80">
+        <v>-67.233000000000004</v>
+      </c>
+      <c r="X80">
+        <v>-380.37799999999999</v>
+      </c>
+      <c r="Y80">
+        <v>280.44799999999998</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>143.93899999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>136.529</v>
+      </c>
+      <c r="D81">
+        <v>4224.8</v>
+      </c>
+      <c r="E81">
+        <v>2534.357</v>
+      </c>
+      <c r="F81">
+        <v>286.36900000000003</v>
+      </c>
+      <c r="G81">
+        <v>2852.6990000000001</v>
+      </c>
+      <c r="H81">
+        <v>5074.8379999999997</v>
+      </c>
+      <c r="I81">
+        <v>1196.797</v>
+      </c>
+      <c r="J81">
+        <v>1093.087</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1760.979</v>
+      </c>
+      <c r="O81">
+        <v>3201.4789999999998</v>
+      </c>
+      <c r="P81">
+        <v>1498.97</v>
+      </c>
+      <c r="Q81">
+        <v>-109.667</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>15177</v>
+      </c>
+      <c r="T81">
+        <v>1873.3589999999999</v>
+      </c>
+      <c r="U81">
+        <v>252.56899999999999</v>
+      </c>
+      <c r="V81">
+        <v>-168.59399999999999</v>
+      </c>
+      <c r="W81">
+        <v>-70.323999999999998</v>
+      </c>
+      <c r="X81">
+        <v>68.353999999999999</v>
+      </c>
+      <c r="Y81">
+        <v>279.21199999999999</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>136.529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>147.80699999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>4549.4520000000002</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2646.7530000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>331.31799999999998</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2941.701</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>5144.2579999999998</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1195.0989999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1093.3009999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1839.732</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3264.3249999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1428.047</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-8.7729999999999997</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>14888</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>1879.933</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>243.79599999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>162.142</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-2.528</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-165.68299999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>268.572</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>147.80699999999999</v>
       </c>
     </row>
